--- a/tables_final.xlsx
+++ b/tables_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEE7C5-8CF0-4EB8-ABEC-22754EE648EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7604E89-1F3A-49FF-807A-5EE1D6D6E224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
+    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Space 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="34">
   <si>
     <t>Linear</t>
   </si>
@@ -208,12 +208,6 @@
 (+ : overestimated &amp;  - : underestimated)</t>
   </si>
   <si>
-    <t>(0.5, 0.75) A</t>
-  </si>
-  <si>
-    <t>(0.5, 0.75) A + C</t>
-  </si>
-  <si>
     <t>Model performance: relative bias
 (+ : overestimated &amp;  - : under)</t>
   </si>
@@ -231,6 +225,21 @@
   </si>
   <si>
     <t>(0,0)</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A+C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.5, 0.75) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A+C </t>
   </si>
 </sst>
 </file>
@@ -351,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1251,56 +1260,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1315,9 +1280,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1329,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1586,9 +1570,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1610,21 +1591,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1682,7 +1651,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1705,7 +1673,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1719,9 +1686,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1870,16 +1834,12 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1925,6 +1885,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1955,9 +1964,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1970,6 +1976,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2018,152 +2027,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2506,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735158-88E3-4592-A032-033FAF873106}">
-  <dimension ref="B1:T62"/>
+  <dimension ref="B1:T65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2499,7 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="0.7109375" customWidth="1"/>
@@ -2528,27 +2510,27 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="227" t="s">
+      <c r="E2" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="228"/>
+      <c r="F2" s="235"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="233" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="228"/>
-      <c r="J2" s="229"/>
+      <c r="H2" s="239" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="235"/>
+      <c r="J2" s="240"/>
     </row>
     <row r="3" spans="2:20" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="242"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="237" t="s">
+      <c r="C3" s="249"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="238"/>
+      <c r="F3" s="245"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19" t="s">
         <v>19</v>
@@ -2562,13 +2544,13 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="160" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2590,62 +2572,62 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="207" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="208" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="218" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="180" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="215">
+      <c r="E5" s="205">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F5" s="216">
+      <c r="F5" s="206">
         <v>1.3</v>
       </c>
-      <c r="G5" s="169"/>
-      <c r="H5" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="187" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="188" t="s">
-        <v>27</v>
+      <c r="G5" s="161"/>
+      <c r="H5" s="178" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="179" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="180" t="s">
+        <v>25</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:20" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="181">
+      <c r="E7" s="173">
         <v>0.76500000000000001</v>
       </c>
       <c r="F7" s="47">
         <v>1.25</v>
       </c>
-      <c r="G7" s="135"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="52">
         <v>0.214</v>
       </c>
@@ -2658,12 +2640,12 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="235"/>
-      <c r="C8" s="231"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="237"/>
       <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="182">
+      <c r="E8" s="174">
         <v>0.66800000000000004</v>
       </c>
       <c r="F8" s="49">
@@ -2682,12 +2664,12 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="235"/>
-      <c r="C9" s="231"/>
+      <c r="B9" s="242"/>
+      <c r="C9" s="237"/>
       <c r="D9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="183">
+      <c r="E9" s="175">
         <v>0.754</v>
       </c>
       <c r="F9" s="65">
@@ -2706,8 +2688,8 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="235"/>
-      <c r="C10" s="231"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="237"/>
       <c r="D10" s="30" t="s">
         <v>2</v>
       </c>
@@ -2730,8 +2712,8 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="235"/>
-      <c r="C11" s="231"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="237"/>
       <c r="D11" s="30" t="s">
         <v>3</v>
       </c>
@@ -2755,12 +2737,12 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="235"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="112" t="s">
+      <c r="B12" s="242"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="108">
         <v>0.67500000000000004</v>
       </c>
       <c r="F12" s="46">
@@ -2780,38 +2762,38 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="235"/>
-      <c r="C13" s="230" t="s">
+      <c r="B13" s="242"/>
+      <c r="C13" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="131" t="s">
+      <c r="D13" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="184">
+      <c r="E13" s="176">
         <v>0.753</v>
       </c>
-      <c r="F13" s="123">
+      <c r="F13" s="118">
         <v>1.25</v>
       </c>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125">
+      <c r="G13" s="119"/>
+      <c r="H13" s="120">
         <v>0.224</v>
       </c>
-      <c r="I13" s="125">
+      <c r="I13" s="120">
         <v>-0.39200000000000002</v>
       </c>
-      <c r="J13" s="126">
+      <c r="J13" s="121">
         <v>-7.5800000000000006E-2</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="235"/>
-      <c r="C14" s="231"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="237"/>
       <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="182">
+      <c r="E14" s="174">
         <v>0.63600000000000001</v>
       </c>
       <c r="F14" s="85">
@@ -2831,12 +2813,12 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="235"/>
-      <c r="C15" s="231"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="237"/>
       <c r="D15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="181">
+      <c r="E15" s="173">
         <v>0.72699999999999998</v>
       </c>
       <c r="F15" s="68">
@@ -2857,12 +2839,12 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="235"/>
-      <c r="C16" s="231"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="237"/>
       <c r="D16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="172">
+      <c r="E16" s="164">
         <v>0.61799999999999999</v>
       </c>
       <c r="F16" s="49">
@@ -2883,13 +2865,13 @@
       <c r="O16" s="41"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="235"/>
-      <c r="C17" s="231"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="237"/>
       <c r="D17" s="30" t="s">
         <v>3</v>
       </c>
@@ -2913,12 +2895,12 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="235"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="112" t="s">
+      <c r="B18" s="242"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="108">
         <v>0.69099999999999995</v>
       </c>
       <c r="F18" s="46">
@@ -2931,45 +2913,45 @@
       <c r="I18" s="89">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="J18" s="132">
+      <c r="J18" s="127">
         <v>-6.25E-2</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="235"/>
-      <c r="C19" s="230" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="131" t="s">
+      <c r="B19" s="242"/>
+      <c r="C19" s="236" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="184">
+      <c r="E19" s="176">
         <v>0.77500000000000002</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="118">
         <v>1.32</v>
       </c>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125">
+      <c r="G19" s="119"/>
+      <c r="H19" s="120">
         <v>0.224</v>
       </c>
-      <c r="I19" s="125">
+      <c r="I19" s="120">
         <v>-0.81399999999999995</v>
       </c>
-      <c r="J19" s="126">
+      <c r="J19" s="121">
         <v>-7.1900000000000006E-2</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="235"/>
-      <c r="C20" s="231"/>
+      <c r="B20" s="242"/>
+      <c r="C20" s="237"/>
       <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="182">
+      <c r="E20" s="174">
         <v>0.68799999999999994</v>
       </c>
       <c r="F20" s="47">
@@ -2989,12 +2971,12 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="235"/>
-      <c r="C21" s="231"/>
+      <c r="B21" s="242"/>
+      <c r="C21" s="237"/>
       <c r="D21" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="181">
+      <c r="E21" s="173">
         <v>0.75800000000000001</v>
       </c>
       <c r="F21" s="68">
@@ -3014,12 +2996,12 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="235"/>
-      <c r="C22" s="231"/>
+      <c r="B22" s="242"/>
+      <c r="C22" s="237"/>
       <c r="D22" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="182">
+      <c r="E22" s="174">
         <v>0.64700000000000002</v>
       </c>
       <c r="F22" s="49">
@@ -3039,12 +3021,12 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="235"/>
-      <c r="C23" s="231"/>
+      <c r="B23" s="242"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="171">
+      <c r="E23" s="163">
         <v>0.79800000000000004</v>
       </c>
       <c r="F23" s="44">
@@ -3063,12 +3045,12 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="236"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="128" t="s">
+      <c r="B24" s="243"/>
+      <c r="C24" s="238"/>
+      <c r="D24" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="185">
+      <c r="E24" s="177">
         <v>0.69699999999999995</v>
       </c>
       <c r="F24" s="74">
@@ -3081,27 +3063,27 @@
       <c r="I24" s="58">
         <v>-7.8299999999999995E-2</v>
       </c>
-      <c r="J24" s="132">
+      <c r="J24" s="127">
         <v>-6.7599999999999993E-2</v>
       </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:12" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="219" t="s">
+      <c r="B26" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="222" t="s">
+      <c r="C26" s="229" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="31" t="s">
@@ -3125,8 +3107,8 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="220"/>
-      <c r="C27" s="223"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="230"/>
       <c r="D27" s="30" t="s">
         <v>8</v>
       </c>
@@ -3148,8 +3130,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="220"/>
-      <c r="C28" s="223"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="230"/>
       <c r="D28" s="30" t="s">
         <v>1</v>
       </c>
@@ -3171,12 +3153,12 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="220"/>
-      <c r="C29" s="223"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="230"/>
       <c r="D29" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="193">
+      <c r="E29" s="185">
         <v>0.41599999999999998</v>
       </c>
       <c r="F29" s="44">
@@ -3194,15 +3176,15 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="220"/>
-      <c r="C30" s="223"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="230"/>
       <c r="D30" s="30" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="66">
         <v>0.63200000000000001</v>
       </c>
-      <c r="F30" s="133">
+      <c r="F30" s="128">
         <v>1.2</v>
       </c>
       <c r="G30" s="27"/>
@@ -3212,14 +3194,14 @@
       <c r="I30" s="88">
         <v>2.87E-2</v>
       </c>
-      <c r="J30" s="195">
+      <c r="J30" s="187">
         <v>-0.109</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="220"/>
-      <c r="C31" s="224"/>
-      <c r="D31" s="112" t="s">
+      <c r="B31" s="227"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="107" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="67">
@@ -3241,34 +3223,34 @@
       <c r="L31" s="12"/>
     </row>
     <row r="32" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="220"/>
-      <c r="C32" s="225" t="s">
+      <c r="B32" s="227"/>
+      <c r="C32" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="131" t="s">
+      <c r="D32" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="122">
+      <c r="E32" s="117">
         <v>0.64100000000000001</v>
       </c>
-      <c r="F32" s="123">
+      <c r="F32" s="118">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G32" s="124"/>
-      <c r="H32" s="125">
+      <c r="G32" s="119"/>
+      <c r="H32" s="120">
         <v>0.19800000000000001</v>
       </c>
-      <c r="I32" s="125">
+      <c r="I32" s="120">
         <v>-0.30599999999999999</v>
       </c>
-      <c r="J32" s="126">
+      <c r="J32" s="121">
         <v>-0.125</v>
       </c>
       <c r="L32" s="12"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="220"/>
-      <c r="C33" s="223"/>
+      <c r="B33" s="227"/>
+      <c r="C33" s="230"/>
       <c r="D33" s="30" t="s">
         <v>8</v>
       </c>
@@ -3290,8 +3272,8 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="220"/>
-      <c r="C34" s="223"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="230"/>
       <c r="D34" s="30" t="s">
         <v>1</v>
       </c>
@@ -3313,8 +3295,8 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="220"/>
-      <c r="C35" s="223"/>
+      <c r="B35" s="227"/>
+      <c r="C35" s="230"/>
       <c r="D35" s="30" t="s">
         <v>2</v>
       </c>
@@ -3336,8 +3318,8 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="220"/>
-      <c r="C36" s="223"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="230"/>
       <c r="D36" s="30" t="s">
         <v>3</v>
       </c>
@@ -3359,15 +3341,15 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="220"/>
-      <c r="C37" s="224"/>
-      <c r="D37" s="112" t="s">
+      <c r="B37" s="227"/>
+      <c r="C37" s="231"/>
+      <c r="D37" s="107" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="67">
         <v>0.46600000000000003</v>
       </c>
-      <c r="F37" s="98">
+      <c r="F37" s="97">
         <v>0.92500000000000004</v>
       </c>
       <c r="G37" s="28"/>
@@ -3377,16 +3359,16 @@
       <c r="I37" s="58">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="J37" s="132">
+      <c r="J37" s="127">
         <v>-0.11</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="220"/>
-      <c r="C38" s="223" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="127" t="s">
+      <c r="B38" s="227"/>
+      <c r="C38" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="122" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="48">
@@ -3407,8 +3389,8 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="220"/>
-      <c r="C39" s="223"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="230"/>
       <c r="D39" s="30" t="s">
         <v>8</v>
       </c>
@@ -3430,8 +3412,8 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="220"/>
-      <c r="C40" s="223"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="230"/>
       <c r="D40" s="30" t="s">
         <v>1</v>
       </c>
@@ -3453,8 +3435,8 @@
       </c>
     </row>
     <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="220"/>
-      <c r="C41" s="223"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="230"/>
       <c r="D41" s="30" t="s">
         <v>2</v>
       </c>
@@ -3476,15 +3458,15 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="220"/>
-      <c r="C42" s="223"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="230"/>
       <c r="D42" s="30" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="87">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F42" s="194">
+      <c r="F42" s="186">
         <v>1.25</v>
       </c>
       <c r="G42" s="29"/>
@@ -3499,9 +3481,9 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="221"/>
-      <c r="C43" s="226"/>
-      <c r="D43" s="128" t="s">
+      <c r="B43" s="228"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="123" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="67">
@@ -3517,262 +3499,447 @@
       <c r="I43" s="58">
         <v>0.27200000000000002</v>
       </c>
-      <c r="J43" s="132">
+      <c r="J43" s="127">
         <v>-0.112</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="136"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="138"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="132"/>
       <c r="E44" s="78"/>
       <c r="F44" s="79"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="121"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="116"/>
     </row>
     <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="219" t="s">
+      <c r="B45" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="222" t="s">
+      <c r="C45" s="229" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="61"/>
+      <c r="E45" s="43">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F45" s="62">
+        <v>1.18</v>
+      </c>
+      <c r="G45" s="129"/>
+      <c r="H45" s="52">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I45" s="52">
+        <v>-0.66</v>
+      </c>
+      <c r="J45" s="224">
+        <v>-0.158</v>
+      </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="220"/>
-      <c r="C46" s="223"/>
+      <c r="B46" s="227"/>
+      <c r="C46" s="230"/>
       <c r="D46" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="49"/>
+      <c r="E46" s="45">
+        <v>0.504</v>
+      </c>
+      <c r="F46" s="49">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="G46" s="26"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="51"/>
+      <c r="H46" s="53">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I46" s="92">
+        <v>-0.997</v>
+      </c>
+      <c r="J46" s="51">
+        <v>-0.19400000000000001</v>
+      </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="220"/>
-      <c r="C47" s="223"/>
+      <c r="B47" s="227"/>
+      <c r="C47" s="230"/>
       <c r="D47" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="65"/>
+      <c r="E47" s="64">
+        <v>0.496</v>
+      </c>
+      <c r="F47" s="65">
+        <v>1.02</v>
+      </c>
       <c r="G47" s="25"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="69"/>
+      <c r="H47" s="56">
+        <v>0.13</v>
+      </c>
+      <c r="I47" s="223">
+        <v>-2.2200000000000001E-2</v>
+      </c>
+      <c r="J47" s="69">
+        <v>-0.17399999999999999</v>
+      </c>
     </row>
     <row r="48" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="220"/>
-      <c r="C48" s="223"/>
+      <c r="B48" s="227"/>
+      <c r="C48" s="230"/>
       <c r="D48" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="44"/>
+      <c r="E48" s="66">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F48" s="44">
+        <v>0.95</v>
+      </c>
       <c r="G48" s="26"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="70"/>
-    </row>
-    <row r="49" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="220"/>
-      <c r="C49" s="223"/>
+      <c r="H48" s="54">
+        <v>0.121</v>
+      </c>
+      <c r="I48" s="54">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="J48" s="70">
+        <v>-0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="227"/>
+      <c r="C49" s="230"/>
       <c r="D49" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="133"/>
+      <c r="E49" s="66">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F49" s="128">
+        <v>1.08</v>
+      </c>
       <c r="G49" s="27"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="70"/>
-    </row>
-    <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="220"/>
-      <c r="C50" s="224"/>
-      <c r="D50" s="112" t="s">
+      <c r="H49" s="54">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="I49" s="54">
+        <v>-0.439</v>
+      </c>
+      <c r="J49" s="70">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="227"/>
+      <c r="C50" s="231"/>
+      <c r="D50" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="46"/>
+      <c r="E50" s="67">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F50" s="97">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="71"/>
-    </row>
-    <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="220"/>
-      <c r="C51" s="225" t="s">
+      <c r="H50" s="89">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="I50" s="58">
+        <v>-0.52100000000000002</v>
+      </c>
+      <c r="J50" s="71">
+        <v>-0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="227"/>
+      <c r="C51" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="131" t="s">
+      <c r="D51" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="122"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="126"/>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="220"/>
-      <c r="C52" s="223"/>
+      <c r="E51" s="117">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="F51" s="118">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G51" s="119"/>
+      <c r="H51" s="120">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I51" s="120">
+        <v>-0.88</v>
+      </c>
+      <c r="J51" s="121">
+        <v>-0.161</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="227"/>
+      <c r="C52" s="230"/>
       <c r="D52" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="47"/>
+      <c r="E52" s="45">
+        <v>0.496</v>
+      </c>
+      <c r="F52" s="47">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="G52" s="26"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="57"/>
-    </row>
-    <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="220"/>
-      <c r="C53" s="223"/>
+      <c r="H52" s="53">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I52" s="53">
+        <v>-0.68</v>
+      </c>
+      <c r="J52" s="57">
+        <v>-0.192</v>
+      </c>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="227"/>
+      <c r="C53" s="230"/>
       <c r="D53" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="68"/>
+      <c r="E53" s="48">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F53" s="68">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G53" s="25"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
-    </row>
-    <row r="54" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="220"/>
-      <c r="C54" s="223"/>
+      <c r="H53" s="56">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I53" s="56">
+        <v>-0.41499999999999998</v>
+      </c>
+      <c r="J53" s="57">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="227"/>
+      <c r="C54" s="230"/>
       <c r="D54" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="49"/>
+      <c r="E54" s="84">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F54" s="49">
+        <v>0.8</v>
+      </c>
       <c r="G54" s="29"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="57"/>
-    </row>
-    <row r="55" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="220"/>
-      <c r="C55" s="223"/>
+      <c r="H54" s="54">
+        <v>0.115</v>
+      </c>
+      <c r="I54" s="54">
+        <v>5.74E-2</v>
+      </c>
+      <c r="J54" s="57">
+        <v>-0.21</v>
+      </c>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="227"/>
+      <c r="C55" s="230"/>
       <c r="D55" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="44"/>
+      <c r="E55" s="66">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F55" s="186">
+        <v>1.25</v>
+      </c>
       <c r="G55" s="29"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="72"/>
-    </row>
-    <row r="56" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="220"/>
-      <c r="C56" s="224"/>
-      <c r="D56" s="112" t="s">
+      <c r="H55" s="54">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I55" s="54">
+        <v>-0.46700000000000003</v>
+      </c>
+      <c r="J55" s="72">
+        <v>-0.192</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="227"/>
+      <c r="C56" s="231"/>
+      <c r="D56" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="67"/>
-      <c r="F56" s="46"/>
+      <c r="E56" s="67">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F56" s="46">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="G56" s="28"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="132"/>
-    </row>
-    <row r="57" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="220"/>
-      <c r="C57" s="223" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="127" t="s">
+      <c r="H56" s="58">
+        <v>0.106</v>
+      </c>
+      <c r="I56" s="58">
+        <v>-0.76700000000000002</v>
+      </c>
+      <c r="J56" s="225">
+        <v>-0.214</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="227"/>
+      <c r="C57" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="47"/>
+      <c r="E57" s="189">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="F57" s="47">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G57" s="25"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="72"/>
-    </row>
-    <row r="58" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="220"/>
-      <c r="C58" s="223"/>
+      <c r="H57" s="55">
+        <v>0.218</v>
+      </c>
+      <c r="I57" s="55">
+        <v>-0.499</v>
+      </c>
+      <c r="J57" s="224">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="227"/>
+      <c r="C58" s="230"/>
       <c r="D58" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="47"/>
+      <c r="E58" s="45">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F58" s="47">
+        <v>1.18</v>
+      </c>
       <c r="G58" s="26"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="57"/>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="220"/>
-      <c r="C59" s="223"/>
+      <c r="H58" s="92">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="I58" s="53">
+        <v>-0.56799999999999995</v>
+      </c>
+      <c r="J58" s="57">
+        <v>-0.192</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="227"/>
+      <c r="C59" s="230"/>
       <c r="D59" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="68"/>
+      <c r="E59" s="48">
+        <v>0.502</v>
+      </c>
+      <c r="F59" s="68">
+        <v>1</v>
+      </c>
       <c r="G59" s="25"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
-    </row>
-    <row r="60" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="220"/>
-      <c r="C60" s="223"/>
+      <c r="H59" s="56">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I59" s="56">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="J59" s="57">
+        <v>-0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="227"/>
+      <c r="C60" s="230"/>
       <c r="D60" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="49"/>
+      <c r="E60" s="45">
+        <v>0.34</v>
+      </c>
+      <c r="F60" s="49">
+        <v>0.9</v>
+      </c>
       <c r="G60" s="29"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="57"/>
-    </row>
-    <row r="61" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="220"/>
-      <c r="C61" s="223"/>
+      <c r="H60" s="54">
+        <v>0.13</v>
+      </c>
+      <c r="I60" s="54">
+        <v>2.63E-2</v>
+      </c>
+      <c r="J60" s="57">
+        <v>-0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="227"/>
+      <c r="C61" s="230"/>
       <c r="D61" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="44"/>
+      <c r="E61" s="66">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F61" s="44">
+        <v>1.08</v>
+      </c>
       <c r="G61" s="29"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="72"/>
-    </row>
-    <row r="62" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="221"/>
-      <c r="C62" s="226"/>
-      <c r="D62" s="128" t="s">
+      <c r="H61" s="54">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="I61" s="54">
+        <v>-0.47599999999999998</v>
+      </c>
+      <c r="J61" s="72">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="228"/>
+      <c r="C62" s="233"/>
+      <c r="D62" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="141"/>
+      <c r="E62" s="73">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="F62" s="74">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G62" s="134"/>
+      <c r="H62" s="63">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="I62" s="63">
+        <v>-0.12</v>
+      </c>
+      <c r="J62" s="135">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3802,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5764096-CBDC-48A7-984B-BFD813F170CD}">
   <dimension ref="B1:U27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,19 +3978,21 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="0.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="11" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="34"/>
-      <c r="E1" s="37"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
@@ -3842,29 +4011,29 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="279" t="s">
+      <c r="E3"/>
+      <c r="F3" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
+      <c r="G3" s="258"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="233" t="s">
+      <c r="I3" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="228"/>
-      <c r="K3" s="229"/>
-    </row>
-    <row r="4" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="250" t="s">
+      <c r="J3" s="235"/>
+      <c r="K3" s="240"/>
+    </row>
+    <row r="4" spans="2:21" s="38" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="281" t="s">
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="282"/>
-      <c r="G4" s="283"/>
+      <c r="G4" s="262"/>
       <c r="H4" s="23"/>
       <c r="I4" s="19" t="s">
         <v>19</v>
@@ -3876,188 +4045,202 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="102" t="s">
+    <row r="5" spans="2:21" s="38" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="284" t="s">
+      <c r="D5" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="287" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="267" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="293">
-        <v>0.95</v>
-      </c>
-      <c r="G5" s="273" t="s">
+      <c r="G5" s="288" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="289"/>
+      <c r="I5" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="291" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="244" t="s">
+      <c r="B6" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="247" t="s">
+      <c r="C6" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="270" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="271">
+      <c r="D6" s="280" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="175">
         <v>0.63800000000000001</v>
-      </c>
-      <c r="F6" s="272">
-        <v>0.95099999999999996</v>
       </c>
       <c r="G6" s="65">
         <v>1.18</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="114">
+      <c r="H6" s="129"/>
+      <c r="I6" s="109">
         <v>0.16600000000000001</v>
       </c>
-      <c r="J6" s="262">
+      <c r="J6" s="99">
         <v>-0.58899999999999997</v>
       </c>
-      <c r="K6" s="263">
+      <c r="K6" s="112">
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="245"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="203" t="s">
+      <c r="B7" s="252"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="276" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="108">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G7" s="209">
+        <v>1.3</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="110">
+        <v>0.216</v>
+      </c>
+      <c r="J7" s="147">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K7" s="217">
+        <v>-0.12</v>
+      </c>
+      <c r="M7" s="270"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="270"/>
+      <c r="R7" s="270"/>
+      <c r="S7" s="270"/>
+    </row>
+    <row r="8" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="252"/>
+      <c r="C8" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="264">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="F7" s="289">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="G7" s="255">
-        <v>1.3</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="265">
-        <v>0.216</v>
-      </c>
-      <c r="J7" s="155">
-        <v>1.4E-2</v>
-      </c>
-      <c r="K7" s="297">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="245"/>
-      <c r="C8" s="249" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="274" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="271">
+      <c r="D8" s="279" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="175">
         <v>0.64700000000000002</v>
-      </c>
-      <c r="F8" s="292">
-        <v>0.97599999999999998</v>
       </c>
       <c r="G8" s="49">
         <v>1.18</v>
       </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="276">
+      <c r="I8" s="56">
         <v>0.19</v>
       </c>
-      <c r="J8" s="276">
+      <c r="J8" s="56">
         <v>-0.56599999999999995</v>
       </c>
-      <c r="K8" s="294">
+      <c r="K8" s="214">
         <v>-6.59E-2</v>
       </c>
+      <c r="M8" s="270"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="270"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="270"/>
+      <c r="S8" s="270"/>
     </row>
     <row r="9" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="245"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="203" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="291">
+      <c r="B9" s="252"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="276" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="213">
         <v>0.65</v>
       </c>
-      <c r="F9" s="277">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G9" s="254">
+      <c r="G9" s="46">
         <v>1.23</v>
       </c>
       <c r="H9" s="28"/>
-      <c r="I9" s="295">
+      <c r="I9" s="215">
         <v>0.214</v>
       </c>
-      <c r="J9" s="265">
+      <c r="J9" s="110">
         <v>-0.58199999999999996</v>
       </c>
-      <c r="K9" s="266">
+      <c r="K9" s="141">
         <v>-0.111</v>
       </c>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="41"/>
+      <c r="M9" s="272"/>
+      <c r="N9" s="272"/>
+      <c r="O9" s="271"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="273"/>
+      <c r="S9" s="272"/>
     </row>
     <row r="10" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="245"/>
+      <c r="B10" s="252"/>
       <c r="C10" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="275" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="153">
+      <c r="D10" s="280" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="265" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="145">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F10" s="278">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G10" s="290">
+      <c r="G10" s="212">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H10" s="166"/>
-      <c r="I10" s="267">
+      <c r="H10" s="158"/>
+      <c r="I10" s="111">
         <v>0.16700000000000001</v>
       </c>
-      <c r="J10" s="296">
+      <c r="J10" s="216">
         <v>-0.89800000000000002</v>
       </c>
-      <c r="K10" s="156">
+      <c r="K10" s="148">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="L10" s="111"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="270"/>
+      <c r="N10" s="270"/>
+      <c r="O10" s="270"/>
+      <c r="P10" s="270"/>
+      <c r="Q10" s="270"/>
+      <c r="R10" s="270"/>
+      <c r="S10" s="270"/>
       <c r="T10"/>
       <c r="U10"/>
     </row>
@@ -4065,133 +4248,140 @@
       <c r="B11" s="75"/>
       <c r="C11" s="76"/>
       <c r="D11" s="77"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="79"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="210"/>
       <c r="G11" s="79"/>
-      <c r="H11" s="161"/>
+      <c r="H11" s="153"/>
       <c r="I11" s="80"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
+      <c r="M11" s="270"/>
+      <c r="N11" s="270"/>
+      <c r="O11" s="270"/>
+      <c r="P11" s="270"/>
+      <c r="Q11" s="270"/>
+      <c r="R11" s="270"/>
+      <c r="S11" s="270"/>
       <c r="T11"/>
       <c r="U11"/>
     </row>
     <row r="12" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="244" t="s">
+      <c r="B12" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="247" t="s">
+      <c r="C12" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="196">
+      <c r="D12" s="277" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="188">
         <v>0.41599999999999998</v>
-      </c>
-      <c r="F12" s="261">
-        <v>0.77500000000000002</v>
       </c>
       <c r="G12" s="42">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="262">
+      <c r="H12" s="129"/>
+      <c r="I12" s="99">
         <v>0.129</v>
       </c>
-      <c r="J12" s="262">
+      <c r="J12" s="99">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="K12" s="263">
+      <c r="K12" s="112">
         <v>-0.17199999999999999</v>
       </c>
       <c r="L12"/>
+      <c r="M12" s="270"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="270"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
     </row>
     <row r="13" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="245"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="112" t="s">
+      <c r="B13" s="252"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="276" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="108">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G13" s="209">
+        <v>1.05</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="110">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J13" s="147">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="K13" s="217">
+        <v>-0.21</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="252"/>
+      <c r="C14" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="264">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="F13" s="254">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="G13" s="255">
+      <c r="D14" s="279" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="218">
+        <v>0.443</v>
+      </c>
+      <c r="G14" s="219">
         <v>1.05</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="265">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="J13" s="155">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="K13" s="297">
-        <v>-0.21</v>
-      </c>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="245"/>
-      <c r="C14" s="249" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="298">
-        <v>0.443</v>
-      </c>
-      <c r="F14" s="299">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="G14" s="299">
-        <v>1.05</v>
-      </c>
-      <c r="H14" s="124"/>
-      <c r="I14" s="190">
+      <c r="H14" s="119"/>
+      <c r="I14" s="182">
         <v>0.126</v>
       </c>
-      <c r="J14" s="300">
+      <c r="J14" s="220">
         <v>-0.69399999999999995</v>
       </c>
-      <c r="K14" s="192">
+      <c r="K14" s="184">
         <v>-0.158</v>
       </c>
       <c r="L14"/>
     </row>
     <row r="15" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="245"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="264">
+      <c r="B15" s="252"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="276" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="108">
         <v>0.43</v>
-      </c>
-      <c r="F15" s="254">
-        <v>0.75</v>
       </c>
       <c r="G15" s="46">
         <v>0.97499999999999998</v>
       </c>
       <c r="H15" s="28"/>
-      <c r="I15" s="295">
+      <c r="I15" s="215">
         <v>0.153</v>
       </c>
-      <c r="J15" s="265">
+      <c r="J15" s="110">
         <v>-0.61399999999999999</v>
       </c>
-      <c r="K15" s="266">
+      <c r="K15" s="141">
         <v>-0.19900000000000001</v>
       </c>
       <c r="L15"/>
@@ -4199,30 +4389,30 @@
       <c r="N15"/>
     </row>
     <row r="16" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="245"/>
+      <c r="B16" s="252"/>
       <c r="C16" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="153">
+      <c r="D16" s="280" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="265" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="145">
         <v>0.41599999999999998</v>
       </c>
-      <c r="F16" s="154">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="G16" s="154">
+      <c r="G16" s="146">
         <v>0.95</v>
       </c>
-      <c r="H16" s="166"/>
-      <c r="I16" s="267">
+      <c r="H16" s="158"/>
+      <c r="I16" s="111">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J16" s="267">
+      <c r="J16" s="111">
         <v>-0.438</v>
       </c>
-      <c r="K16" s="268">
+      <c r="K16" s="144">
         <v>-0.17799999999999999</v>
       </c>
       <c r="L16"/>
@@ -4230,107 +4420,167 @@
       <c r="N16"/>
     </row>
     <row r="17" spans="2:14" s="38" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="157"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
       <c r="K17" s="27"/>
       <c r="L17" s="59"/>
       <c r="M17" s="59"/>
       <c r="N17"/>
     </row>
     <row r="18" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="244" t="s">
+      <c r="B18" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="247" t="s">
+      <c r="C18" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="117"/>
+      <c r="D18" s="277" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="282">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="H18" s="129"/>
+      <c r="I18" s="54">
+        <v>0.121</v>
+      </c>
+      <c r="J18" s="54">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="K18" s="187">
+        <v>-0.20799999999999999</v>
+      </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
     </row>
     <row r="19" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="245"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="113"/>
-      <c r="F19" s="257"/>
-      <c r="G19" s="46"/>
+      <c r="B19" s="252"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="67">
+        <v>0.32</v>
+      </c>
+      <c r="G19" s="46">
+        <v>0.9</v>
+      </c>
       <c r="H19" s="28"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="148"/>
+      <c r="I19" s="110">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="J19" s="110">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="K19" s="141">
+        <v>-0.22700000000000001</v>
+      </c>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
     <row r="20" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="245"/>
-      <c r="C20" s="249" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="144"/>
-      <c r="F20" s="258"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
+      <c r="B20" s="252"/>
+      <c r="C20" s="256" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="279" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="292">
+        <v>0.34</v>
+      </c>
+      <c r="G20" s="138">
+        <v>0.9</v>
+      </c>
+      <c r="H20" s="119"/>
+      <c r="I20" s="139">
+        <v>0.13</v>
+      </c>
+      <c r="J20" s="182">
+        <v>2.63E-2</v>
+      </c>
+      <c r="K20" s="140">
+        <v>-0.21099999999999999</v>
+      </c>
       <c r="L20"/>
       <c r="M20"/>
     </row>
     <row r="21" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="245"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="113"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="46"/>
+      <c r="B21" s="252"/>
+      <c r="C21" s="255"/>
+      <c r="D21" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="67">
+        <v>0.318</v>
+      </c>
+      <c r="G21" s="209">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="H21" s="28"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="148"/>
+      <c r="I21" s="215">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J21" s="110">
+        <v>-0.186</v>
+      </c>
+      <c r="K21" s="217">
+        <v>-0.23300000000000001</v>
+      </c>
       <c r="L21"/>
       <c r="M21"/>
     </row>
     <row r="22" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="246"/>
-      <c r="C22" s="103" t="s">
+      <c r="B22" s="253"/>
+      <c r="C22" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="164" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="149"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="152"/>
+      <c r="D22" s="281" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="274">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G22" s="212">
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="158"/>
+      <c r="I22" s="269">
+        <v>0.115</v>
+      </c>
+      <c r="J22" s="63">
+        <v>5.74E-2</v>
+      </c>
+      <c r="K22" s="135">
+        <v>-0.21</v>
+      </c>
       <c r="L22"/>
       <c r="M22"/>
     </row>
@@ -4338,7 +4588,7 @@
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="95"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="95"/>
       <c r="G23" s="41"/>
       <c r="H23" s="37"/>
@@ -4349,14 +4599,39 @@
       <c r="M23"/>
     </row>
     <row r="24" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="270"/>
+      <c r="F24" s="270"/>
+      <c r="G24" s="270"/>
+      <c r="H24" s="270"/>
+      <c r="I24" s="270"/>
+      <c r="J24" s="270"/>
+      <c r="K24" s="270"/>
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="270"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="271"/>
+      <c r="G25" s="272"/>
+      <c r="H25" s="273">
+        <v>0.115</v>
+      </c>
+      <c r="I25" s="273"/>
+      <c r="J25" s="272"/>
+      <c r="K25" s="270"/>
+    </row>
+    <row r="26" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="270"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="270"/>
+      <c r="G26" s="270"/>
+      <c r="H26" s="270"/>
+      <c r="I26" s="270"/>
+      <c r="J26" s="270"/>
+      <c r="K26" s="270"/>
+    </row>
     <row r="27" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
@@ -4365,9 +4640,9 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B10"/>
@@ -4381,10 +4656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63A179C-A39D-4F54-8121-5C3E8B4CB3C9}">
-  <dimension ref="B1:L62"/>
+  <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4404,27 +4679,27 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="227" t="s">
+      <c r="E2" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="228"/>
+      <c r="F2" s="235"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="233" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="228"/>
-      <c r="J2" s="229"/>
+      <c r="H2" s="239" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="235"/>
+      <c r="J2" s="240"/>
     </row>
     <row r="3" spans="2:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="250" t="s">
+      <c r="B3" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="237" t="s">
+      <c r="C3" s="260"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="238"/>
+      <c r="F3" s="245"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19" t="s">
         <v>19</v>
@@ -4466,50 +4741,50 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="204" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="213">
+      <c r="E5" s="203">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F5" s="214">
+      <c r="F5" s="204">
         <v>1.375</v>
       </c>
-      <c r="G5" s="169"/>
-      <c r="H5" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="187" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="188" t="s">
-        <v>27</v>
+      <c r="G5" s="161"/>
+      <c r="H5" s="178" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="179" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="180" t="s">
+        <v>25</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="205"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="209"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="199"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="212"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="202"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="253" t="s">
+      <c r="C7" s="263" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -4534,8 +4809,8 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="220"/>
-      <c r="C8" s="223"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="230"/>
       <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
@@ -4559,8 +4834,8 @@
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="220"/>
-      <c r="C9" s="223"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="230"/>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
@@ -4584,8 +4859,8 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="220"/>
-      <c r="C10" s="223"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="230"/>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
@@ -4608,8 +4883,8 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="220"/>
-      <c r="C11" s="223"/>
+      <c r="B11" s="227"/>
+      <c r="C11" s="230"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -4632,15 +4907,15 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="220"/>
-      <c r="C12" s="224"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="231"/>
       <c r="D12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="67">
         <v>0.68500000000000005</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="97">
         <v>1.02</v>
       </c>
       <c r="G12" s="28"/>
@@ -4656,8 +4931,8 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="220"/>
-      <c r="C13" s="225" t="s">
+      <c r="B13" s="227"/>
+      <c r="C13" s="232" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -4682,8 +4957,8 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="220"/>
-      <c r="C14" s="223"/>
+      <c r="B14" s="227"/>
+      <c r="C14" s="230"/>
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
@@ -4706,8 +4981,8 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="220"/>
-      <c r="C15" s="223"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="230"/>
       <c r="D15" s="10" t="s">
         <v>1</v>
       </c>
@@ -4730,8 +5005,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="220"/>
-      <c r="C16" s="223"/>
+      <c r="B16" s="227"/>
+      <c r="C16" s="230"/>
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
@@ -4754,8 +5029,8 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="220"/>
-      <c r="C17" s="223"/>
+      <c r="B17" s="227"/>
+      <c r="C17" s="230"/>
       <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
@@ -4778,8 +5053,8 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="220"/>
-      <c r="C18" s="224"/>
+      <c r="B18" s="227"/>
+      <c r="C18" s="231"/>
       <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
@@ -4802,9 +5077,9 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="220"/>
-      <c r="C19" s="225" t="s">
-        <v>26</v>
+      <c r="B19" s="227"/>
+      <c r="C19" s="232" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>7</v>
@@ -4829,8 +5104,8 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="220"/>
-      <c r="C20" s="223"/>
+      <c r="B20" s="227"/>
+      <c r="C20" s="230"/>
       <c r="D20" s="9" t="s">
         <v>8</v>
       </c>
@@ -4850,12 +5125,12 @@
       <c r="J20" s="57">
         <v>-5.4100000000000002E-2</v>
       </c>
-      <c r="K20" s="97"/>
+      <c r="K20" s="96"/>
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="220"/>
-      <c r="C21" s="223"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="230"/>
       <c r="D21" s="10" t="s">
         <v>1</v>
       </c>
@@ -4879,8 +5154,8 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="220"/>
-      <c r="C22" s="223"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="230"/>
       <c r="D22" s="9" t="s">
         <v>2</v>
       </c>
@@ -4904,8 +5179,8 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="220"/>
-      <c r="C23" s="223"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="230"/>
       <c r="D23" s="9" t="s">
         <v>3</v>
       </c>
@@ -4928,8 +5203,8 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="220"/>
-      <c r="C24" s="224"/>
+      <c r="B24" s="227"/>
+      <c r="C24" s="231"/>
       <c r="D24" s="11" t="s">
         <v>4</v>
       </c>
@@ -4946,7 +5221,7 @@
       <c r="I24" s="58">
         <v>-0.39300000000000002</v>
       </c>
-      <c r="J24" s="132">
+      <c r="J24" s="127">
         <v>-4.7500000000000001E-2</v>
       </c>
       <c r="K24" s="3"/>
@@ -4963,13 +5238,13 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="219" t="s">
+      <c r="B26" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="222" t="s">
+      <c r="C26" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="103" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="43">
@@ -4978,7 +5253,7 @@
       <c r="F26" s="62">
         <v>1.08</v>
       </c>
-      <c r="G26" s="135"/>
+      <c r="G26" s="129"/>
       <c r="H26" s="52">
         <v>0.19700000000000001</v>
       </c>
@@ -4990,8 +5265,8 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="220"/>
-      <c r="C27" s="223"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="230"/>
       <c r="D27" s="9" t="s">
         <v>8</v>
       </c>
@@ -5013,8 +5288,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="220"/>
-      <c r="C28" s="223"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="230"/>
       <c r="D28" s="10" t="s">
         <v>1</v>
       </c>
@@ -5036,15 +5311,15 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="220"/>
-      <c r="C29" s="223"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="230"/>
       <c r="D29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="66">
         <v>0.41499999999999998</v>
       </c>
-      <c r="F29" s="198">
+      <c r="F29" s="190">
         <v>0.95</v>
       </c>
       <c r="G29" s="26"/>
@@ -5059,8 +5334,8 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="220"/>
-      <c r="C30" s="223"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="230"/>
       <c r="D30" s="9" t="s">
         <v>3</v>
       </c>
@@ -5082,8 +5357,8 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="220"/>
-      <c r="C31" s="224"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="11" t="s">
         <v>4</v>
       </c>
@@ -5105,8 +5380,8 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="220"/>
-      <c r="C32" s="225" t="s">
+      <c r="B32" s="227"/>
+      <c r="C32" s="232" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -5130,8 +5405,8 @@
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="220"/>
-      <c r="C33" s="223"/>
+      <c r="B33" s="227"/>
+      <c r="C33" s="230"/>
       <c r="D33" s="9" t="s">
         <v>8</v>
       </c>
@@ -5153,8 +5428,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="220"/>
-      <c r="C34" s="223"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="230"/>
       <c r="D34" s="10" t="s">
         <v>1</v>
       </c>
@@ -5177,8 +5452,8 @@
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="220"/>
-      <c r="C35" s="223"/>
+      <c r="B35" s="227"/>
+      <c r="C35" s="230"/>
       <c r="D35" s="9" t="s">
         <v>2</v>
       </c>
@@ -5201,8 +5476,8 @@
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="220"/>
-      <c r="C36" s="223"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="230"/>
       <c r="D36" s="9" t="s">
         <v>3</v>
       </c>
@@ -5224,8 +5499,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="220"/>
-      <c r="C37" s="224"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="231"/>
       <c r="D37" s="11" t="s">
         <v>4</v>
       </c>
@@ -5247,14 +5522,14 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="220"/>
-      <c r="C38" s="225" t="s">
-        <v>26</v>
+      <c r="B38" s="227"/>
+      <c r="C38" s="232" t="s">
+        <v>24</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="197">
+      <c r="E38" s="189">
         <v>0.66200000000000003</v>
       </c>
       <c r="F38" s="47">
@@ -5264,7 +5539,7 @@
       <c r="H38" s="55">
         <v>0.20499999999999999</v>
       </c>
-      <c r="I38" s="99">
+      <c r="I38" s="98">
         <v>-0.56699999999999995</v>
       </c>
       <c r="J38" s="72">
@@ -5272,8 +5547,8 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="220"/>
-      <c r="C39" s="223"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="230"/>
       <c r="D39" s="9" t="s">
         <v>8</v>
       </c>
@@ -5295,8 +5570,8 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="220"/>
-      <c r="C40" s="223"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="230"/>
       <c r="D40" s="10" t="s">
         <v>1</v>
       </c>
@@ -5318,8 +5593,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="220"/>
-      <c r="C41" s="223"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="230"/>
       <c r="D41" s="9" t="s">
         <v>2</v>
       </c>
@@ -5341,8 +5616,8 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="220"/>
-      <c r="C42" s="223"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="230"/>
       <c r="D42" s="9" t="s">
         <v>3</v>
       </c>
@@ -5364,8 +5639,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="221"/>
-      <c r="C43" s="226"/>
+      <c r="B43" s="228"/>
+      <c r="C43" s="233"/>
       <c r="D43" s="33" t="s">
         <v>4</v>
       </c>
@@ -5375,14 +5650,14 @@
       <c r="F43" s="74">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G43" s="140"/>
+      <c r="G43" s="134"/>
       <c r="H43" s="63">
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="I43" s="63">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="J43" s="141">
+      <c r="J43" s="135">
         <v>-9.4799999999999995E-2</v>
       </c>
     </row>
@@ -5398,246 +5673,431 @@
       <c r="J44" s="16"/>
     </row>
     <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="219" t="s">
+      <c r="B45" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="222" t="s">
+      <c r="C45" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="107" t="s">
+      <c r="D45" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="61"/>
+      <c r="E45" s="43">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F45" s="62">
+        <v>1.18</v>
+      </c>
+      <c r="G45" s="129"/>
+      <c r="H45" s="52">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I45" s="52">
+        <v>-0.109</v>
+      </c>
+      <c r="J45" s="224">
+        <v>-0.126</v>
+      </c>
     </row>
     <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="220"/>
-      <c r="C46" s="223"/>
+      <c r="B46" s="227"/>
+      <c r="C46" s="230"/>
       <c r="D46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="49"/>
+      <c r="E46" s="45">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F46" s="49">
+        <v>1</v>
+      </c>
       <c r="G46" s="26"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="51"/>
+      <c r="H46" s="92">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="I46" s="53">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="J46" s="51">
+        <v>-0.161</v>
+      </c>
     </row>
     <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="220"/>
-      <c r="C47" s="223"/>
+      <c r="B47" s="227"/>
+      <c r="C47" s="230"/>
       <c r="D47" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="65"/>
+      <c r="E47" s="64">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="F47" s="65">
+        <v>1.05</v>
+      </c>
       <c r="G47" s="25"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="69"/>
+      <c r="H47" s="56">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I47" s="56">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J47" s="69">
+        <v>-0.13500000000000001</v>
+      </c>
     </row>
     <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="220"/>
-      <c r="C48" s="223"/>
+      <c r="B48" s="227"/>
+      <c r="C48" s="230"/>
       <c r="D48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="44"/>
+      <c r="E48" s="66">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F48" s="44">
+        <v>0.875</v>
+      </c>
       <c r="G48" s="26"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="70"/>
-    </row>
-    <row r="49" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="220"/>
-      <c r="C49" s="223"/>
+      <c r="H48" s="54">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I48" s="88">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="J48" s="70">
+        <v>-0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="227"/>
+      <c r="C49" s="230"/>
       <c r="D49" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="133"/>
+      <c r="E49" s="66">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F49" s="128">
+        <v>1.05</v>
+      </c>
       <c r="G49" s="27"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="70"/>
-    </row>
-    <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="220"/>
-      <c r="C50" s="224"/>
+      <c r="H49" s="54">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="I49" s="93">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="J49" s="70">
+        <v>-0.156</v>
+      </c>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="227"/>
+      <c r="C50" s="231"/>
       <c r="D50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="46"/>
+      <c r="E50" s="67">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F50" s="46">
+        <v>0.875</v>
+      </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="71"/>
-    </row>
-    <row r="51" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="220"/>
-      <c r="C51" s="225" t="s">
+      <c r="H50" s="58">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="I50" s="58">
+        <v>-0.32500000000000001</v>
+      </c>
+      <c r="J50" s="71">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="227"/>
+      <c r="C51" s="232" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="47"/>
+      <c r="E51" s="189">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F51" s="47">
+        <v>1.25</v>
+      </c>
       <c r="G51" s="25"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="72"/>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="220"/>
-      <c r="C52" s="223"/>
+      <c r="H51" s="55">
+        <v>0.19</v>
+      </c>
+      <c r="I51" s="55">
+        <v>-0.1</v>
+      </c>
+      <c r="J51" s="72">
+        <v>-0.127</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="227"/>
+      <c r="C52" s="230"/>
       <c r="D52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="47"/>
+      <c r="E52" s="45">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F52" s="47">
+        <v>1.02</v>
+      </c>
       <c r="G52" s="26"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="57"/>
-    </row>
-    <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="220"/>
-      <c r="C53" s="223"/>
+      <c r="H52" s="53">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I52" s="53">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="J52" s="57">
+        <v>-0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="227"/>
+      <c r="C53" s="230"/>
       <c r="D53" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="68"/>
+      <c r="E53" s="48">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F53" s="68">
+        <v>1.02</v>
+      </c>
       <c r="G53" s="25"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
-    </row>
-    <row r="54" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="220"/>
-      <c r="C54" s="223"/>
+      <c r="H53" s="56">
+        <v>0.115</v>
+      </c>
+      <c r="I53" s="56">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="J53" s="57">
+        <v>-0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="227"/>
+      <c r="C54" s="230"/>
       <c r="D54" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="49"/>
+      <c r="E54" s="84">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F54" s="268">
+        <v>0.82499999999999996</v>
+      </c>
       <c r="G54" s="29"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="57"/>
-    </row>
-    <row r="55" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="220"/>
-      <c r="C55" s="223"/>
+      <c r="H54" s="54">
+        <v>0.106</v>
+      </c>
+      <c r="I54" s="54">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="J54" s="57">
+        <v>-0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="227"/>
+      <c r="C55" s="230"/>
       <c r="D55" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="44"/>
+      <c r="E55" s="66">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F55" s="44">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="G55" s="29"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="72"/>
-    </row>
-    <row r="56" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="220"/>
-      <c r="C56" s="224"/>
+      <c r="H55" s="54">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I55" s="54">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="J55" s="72">
+        <v>-0.153</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="227"/>
+      <c r="C56" s="231"/>
       <c r="D56" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="67"/>
-      <c r="F56" s="46"/>
+      <c r="E56" s="67">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F56" s="46">
+        <v>0.82499999999999996</v>
+      </c>
       <c r="G56" s="28"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="132"/>
-    </row>
-    <row r="57" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="220"/>
-      <c r="C57" s="225" t="s">
-        <v>26</v>
+      <c r="H56" s="58">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="I56" s="58">
+        <v>-0.157</v>
+      </c>
+      <c r="J56" s="225">
+        <v>-0.183</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="227"/>
+      <c r="C57" s="232" t="s">
+        <v>24</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="47"/>
+      <c r="E57" s="189">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F57" s="47">
+        <v>1.08</v>
+      </c>
       <c r="G57" s="25"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="72"/>
-    </row>
-    <row r="58" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="220"/>
-      <c r="C58" s="223"/>
+      <c r="H57" s="55">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="I57" s="55">
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="J57" s="72">
+        <v>-0.126</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="227"/>
+      <c r="C58" s="230"/>
       <c r="D58" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="47"/>
+      <c r="E58" s="45">
+        <v>0.499</v>
+      </c>
+      <c r="F58" s="47">
+        <v>1.23</v>
+      </c>
       <c r="G58" s="26"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="57"/>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="220"/>
-      <c r="C59" s="223"/>
+      <c r="H58" s="53">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I58" s="53">
+        <v>-0.27</v>
+      </c>
+      <c r="J58" s="57">
+        <v>-0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="227"/>
+      <c r="C59" s="230"/>
       <c r="D59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="68"/>
+      <c r="E59" s="48">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F59" s="68">
+        <v>1.05</v>
+      </c>
       <c r="G59" s="25"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
-    </row>
-    <row r="60" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="220"/>
-      <c r="C60" s="223"/>
+      <c r="H59" s="56">
+        <v>0.121</v>
+      </c>
+      <c r="I59" s="56">
+        <v>-0.11</v>
+      </c>
+      <c r="J59" s="57">
+        <v>-0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="227"/>
+      <c r="C60" s="230"/>
       <c r="D60" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="49"/>
+      <c r="E60" s="45">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F60" s="49">
+        <v>0.875</v>
+      </c>
       <c r="G60" s="29"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="57"/>
-    </row>
-    <row r="61" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="220"/>
-      <c r="C61" s="223"/>
+      <c r="H60" s="54">
+        <v>0.11</v>
+      </c>
+      <c r="I60" s="54">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="J60" s="57">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="227"/>
+      <c r="C61" s="230"/>
       <c r="D61" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="44"/>
+      <c r="E61" s="66">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F61" s="186">
+        <v>1.32</v>
+      </c>
       <c r="G61" s="29"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="72"/>
-    </row>
-    <row r="62" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="221"/>
-      <c r="C62" s="226"/>
+      <c r="H61" s="54">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="I61" s="54">
+        <v>-0.182</v>
+      </c>
+      <c r="J61" s="72">
+        <v>-0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="228"/>
+      <c r="C62" s="233"/>
       <c r="D62" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="141"/>
+      <c r="E62" s="73">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F62" s="74">
+        <v>0.9</v>
+      </c>
+      <c r="G62" s="134"/>
+      <c r="H62" s="269">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="I62" s="63">
+        <v>-0.35299999999999998</v>
+      </c>
+      <c r="J62" s="135">
+        <v>-0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5665,10 +6125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19302950-C106-4780-AFCB-B595BCCB0D58}">
-  <dimension ref="B1:T27"/>
+  <dimension ref="B1:S26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5676,510 +6136,603 @@
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="0.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+    <row r="1" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3" s="227" t="s">
+      <c r="F2" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="233" t="s">
+      <c r="G2" s="235"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="228"/>
-      <c r="K3" s="229"/>
-    </row>
-    <row r="4" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="250" t="s">
+      <c r="J2" s="235"/>
+      <c r="K2" s="240"/>
+    </row>
+    <row r="3" spans="2:19" s="38" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="251"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="237" t="s">
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="237"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="199" t="s">
+      <c r="G3" s="245"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="4" spans="2:19" s="38" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C4" s="298" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D4" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E4" s="293" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="286">
+      <c r="G4" s="295" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="296"/>
+      <c r="I4" s="297" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="291" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="251" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="254" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="280" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="104">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G5" s="181">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5" s="129"/>
+      <c r="I5" s="99">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="J5" s="99">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="K5" s="112">
+        <v>-5.1700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="252"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="276" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="108">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G6" s="97">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="127">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J6" s="183">
+        <v>-6.9099999999999995E-2</v>
+      </c>
+      <c r="K6" s="141">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="252"/>
+      <c r="C7" s="256" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="279" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="137">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G7" s="138">
+        <v>1.35</v>
+      </c>
+      <c r="H7" s="119"/>
+      <c r="I7" s="182">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J7" s="139">
+        <v>-1.4</v>
+      </c>
+      <c r="K7" s="184">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="M7" s="270"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="270"/>
+      <c r="R7" s="270"/>
+      <c r="S7" s="270"/>
+    </row>
+    <row r="8" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="252"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="276" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="108">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="G8" s="46">
+        <v>1.25</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="127">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J8" s="159">
+        <v>-0.313</v>
+      </c>
+      <c r="K8" s="141">
+        <v>-0.108</v>
+      </c>
+      <c r="M8" s="270"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="270"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="270"/>
+      <c r="S8" s="270"/>
+    </row>
+    <row r="9" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="252"/>
+      <c r="C9" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="280" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="265" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="145">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G9" s="142">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H9" s="158"/>
+      <c r="I9" s="111">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J9" s="111">
+        <v>-0.69799999999999995</v>
+      </c>
+      <c r="K9" s="143">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="M9" s="272"/>
+      <c r="N9" s="272"/>
+      <c r="O9" s="273"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="270"/>
+      <c r="S9" s="270"/>
+    </row>
+    <row r="10" spans="2:19" s="38" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="271"/>
+      <c r="O10" s="273"/>
+      <c r="P10" s="273"/>
+      <c r="Q10" s="272"/>
+      <c r="R10" s="270"/>
+      <c r="S10" s="270"/>
+    </row>
+    <row r="11" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="254" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="277" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="66">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G11" s="44">
         <v>0.95</v>
       </c>
-      <c r="G5" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="200" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="244" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="247" t="s">
+      <c r="H11" s="129"/>
+      <c r="I11" s="54">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J11" s="54">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="K11" s="70">
+        <v>-0.156</v>
+      </c>
+      <c r="M11" s="271"/>
+      <c r="N11" s="271"/>
+      <c r="O11" s="273"/>
+      <c r="P11" s="273"/>
+      <c r="Q11" s="272"/>
+      <c r="R11" s="270"/>
+      <c r="S11" s="270"/>
+    </row>
+    <row r="12" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="252"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="67">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G12" s="97">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="127">
+        <v>0.15</v>
+      </c>
+      <c r="J12" s="159">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="K12" s="141">
+        <v>-0.20599999999999999</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" s="270"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="270"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+    </row>
+    <row r="13" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="252"/>
+      <c r="C13" s="256" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="279" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="283">
+        <v>0.439</v>
+      </c>
+      <c r="G13" s="138">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H13" s="119"/>
+      <c r="I13" s="88">
+        <v>0.125</v>
+      </c>
+      <c r="J13" s="54">
+        <v>-0.373</v>
+      </c>
+      <c r="K13" s="193">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" s="270"/>
+      <c r="N13" s="270"/>
+      <c r="O13" s="270"/>
+      <c r="P13" s="270"/>
+      <c r="Q13" s="270"/>
+      <c r="R13" s="270"/>
+      <c r="S13" s="270"/>
+    </row>
+    <row r="14" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="252"/>
+      <c r="C14" s="255"/>
+      <c r="D14" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="67">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="46">
+        <v>1.08</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="127">
+        <v>0.152</v>
+      </c>
+      <c r="J14" s="183">
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="K14" s="141">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" s="270"/>
+      <c r="N14" s="270"/>
+      <c r="O14" s="270"/>
+      <c r="P14" s="270"/>
+      <c r="Q14" s="270"/>
+      <c r="R14" s="270"/>
+      <c r="S14" s="270"/>
+    </row>
+    <row r="15" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="253"/>
+      <c r="C15" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="281" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="84">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="G15" s="49">
+        <v>1.05</v>
+      </c>
+      <c r="H15" s="158"/>
+      <c r="I15" s="54">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J15" s="54">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="K15" s="57">
+        <v>-0.158</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="2:19" s="38" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
+    </row>
+    <row r="17" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="251" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="108">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="F6" s="256">
-        <v>0.95</v>
-      </c>
-      <c r="G6" s="189">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="100">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="J6" s="100">
-        <v>-0.39500000000000002</v>
-      </c>
-      <c r="K6" s="117">
-        <v>-5.1700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="245"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="112" t="s">
+      <c r="D17" s="277" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="282">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0.875</v>
+      </c>
+      <c r="H17" s="129"/>
+      <c r="I17" s="109">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J17" s="109">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="K17" s="112">
+        <v>-0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="252"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="301">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G18" s="97">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="127">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="J18" s="159">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="K18" s="141">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="252"/>
+      <c r="C19" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="113">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="F7" s="257">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="G7" s="98">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="132">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="J7" s="191">
-        <v>-6.9099999999999995E-2</v>
-      </c>
-      <c r="K7" s="148">
-        <v>-0.115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="245"/>
-      <c r="C8" s="249" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="144">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="F8" s="258">
-        <v>1</v>
-      </c>
-      <c r="G8" s="145">
-        <v>1.35</v>
-      </c>
-      <c r="H8" s="124"/>
-      <c r="I8" s="190">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="J8" s="146">
-        <v>-1.4</v>
-      </c>
-      <c r="K8" s="192">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="245"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="113">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="F9" s="257">
-        <v>1</v>
-      </c>
-      <c r="G9" s="46">
-        <v>1.25</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="132">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="J9" s="167">
-        <v>-0.313</v>
-      </c>
-      <c r="K9" s="148">
-        <v>-0.108</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="245"/>
-      <c r="C10" s="83" t="s">
+      <c r="D19" s="279" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="45">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="G19" s="49">
+        <v>0.875</v>
+      </c>
+      <c r="H19" s="119"/>
+      <c r="I19" s="54">
+        <v>0.11</v>
+      </c>
+      <c r="J19" s="54">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="K19" s="57">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="252"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="108">
+        <v>0.314</v>
+      </c>
+      <c r="G20" s="46">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="127">
+        <v>0.126</v>
+      </c>
+      <c r="J20" s="159">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="K20" s="141">
+        <v>-0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="253"/>
+      <c r="C21" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="153">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="F10" s="287">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="G10" s="150">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H10" s="166"/>
-      <c r="I10" s="116">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J10" s="116">
-        <v>-0.69799999999999995</v>
-      </c>
-      <c r="K10" s="151">
-        <v>-4.7899999999999998E-2</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="2:20" s="38" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-    </row>
-    <row r="12" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="244" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="247" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="66">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="F12" s="285">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0.95</v>
-      </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="54">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="J12" s="54">
-        <v>-0.30599999999999999</v>
-      </c>
-      <c r="K12" s="70">
-        <v>-0.156</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="245"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="113">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="F13" s="257">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="G13" s="98">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="132">
-        <v>0.15</v>
-      </c>
-      <c r="J13" s="167">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="K13" s="148">
-        <v>-0.20599999999999999</v>
-      </c>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="245"/>
-      <c r="C14" s="249" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="144">
-        <v>0.439</v>
-      </c>
-      <c r="F14" s="258">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="G14" s="145">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H14" s="124"/>
-      <c r="I14" s="88">
-        <v>0.125</v>
-      </c>
-      <c r="J14" s="54">
-        <v>-0.373</v>
-      </c>
-      <c r="K14" s="202">
-        <v>-0.14299999999999999</v>
-      </c>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="245"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="113">
-        <v>0.45</v>
-      </c>
-      <c r="F15" s="257">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="G15" s="46">
-        <v>1.08</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="132">
-        <v>0.152</v>
-      </c>
-      <c r="J15" s="191">
-        <v>-0.13700000000000001</v>
-      </c>
-      <c r="K15" s="148">
-        <v>-0.19800000000000001</v>
-      </c>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="2:20" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="245"/>
-      <c r="C16" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="84">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="F16" s="288">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="G16" s="49">
-        <v>1.05</v>
-      </c>
-      <c r="H16" s="166"/>
-      <c r="I16" s="54">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="J16" s="54">
-        <v>-0.27500000000000002</v>
-      </c>
-      <c r="K16" s="57">
-        <v>-0.158</v>
-      </c>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="2:11" s="38" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="259"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-    </row>
-    <row r="18" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="244" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="247" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="117"/>
-    </row>
-    <row r="19" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="245"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="113"/>
-      <c r="F19" s="257"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="148"/>
-    </row>
-    <row r="20" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="245"/>
-      <c r="C20" s="249" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="144"/>
-      <c r="F20" s="258"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
-    </row>
-    <row r="21" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="245"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="113"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="148"/>
-    </row>
-    <row r="22" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="246"/>
-      <c r="C22" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="134" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="149"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="151"/>
-    </row>
-    <row r="23" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+      <c r="D21" s="281" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="275">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G21" s="299">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H21" s="158"/>
+      <c r="I21" s="300">
+        <v>0.106</v>
+      </c>
+      <c r="J21" s="300">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="K21" s="302">
+        <v>-0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I23" s="39"/>
     </row>
     <row r="24" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6191,24 +6744,21 @@
     <row r="26" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I26" s="39"/>
     </row>
-    <row r="27" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="39"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6216,12 +6766,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6230,7 +6774,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A69AE6C51AEE6142AD84D9FB7E253133" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="688ae3312de6a1cdf808e1735a79ca91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="756e89ea-a5fb-4d06-a9be-9b8635efcbbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ae5de413dc6742d84d7e8ba9b183640" ns3:_="">
     <xsd:import namespace="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
@@ -6406,23 +6950,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6430,7 +6964,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F55020E-069C-4126-815D-85E5FA260EED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6446,4 +6980,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tables_final.xlsx
+++ b/tables_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomp\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7604E89-1F3A-49FF-807A-5EE1D6D6E224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DC77A1-1DA2-4FA1-8A20-9E79934BFC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
+    <workbookView xWindow="2535" yWindow="3750" windowWidth="21600" windowHeight="11175" activeTab="3" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Space 1" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1934,125 +1934,7 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2062,20 +1944,13 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2093,9 +1968,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2126,25 +1998,148 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2490,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735158-88E3-4592-A032-033FAF873106}">
   <dimension ref="B1:T65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:J48"/>
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,27 +2505,27 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="234" t="s">
+      <c r="E2" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="235"/>
+      <c r="F2" s="258"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="239" t="s">
+      <c r="H2" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="235"/>
-      <c r="J2" s="240"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="259"/>
     </row>
     <row r="3" spans="2:20" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="244" t="s">
+      <c r="C3" s="269"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="245"/>
+      <c r="F3" s="264"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19" t="s">
         <v>19</v>
@@ -2612,10 +2607,10 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="241" t="s">
+      <c r="B7" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="246" t="s">
+      <c r="C7" s="265" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="122" t="s">
@@ -2640,8 +2635,8 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="242"/>
-      <c r="C8" s="237"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
@@ -2664,8 +2659,8 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="242"/>
-      <c r="C9" s="237"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="266"/>
       <c r="D9" s="30" t="s">
         <v>1</v>
       </c>
@@ -2688,8 +2683,8 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="242"/>
-      <c r="C10" s="237"/>
+      <c r="B10" s="261"/>
+      <c r="C10" s="266"/>
       <c r="D10" s="30" t="s">
         <v>2</v>
       </c>
@@ -2712,8 +2707,8 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="242"/>
-      <c r="C11" s="237"/>
+      <c r="B11" s="261"/>
+      <c r="C11" s="266"/>
       <c r="D11" s="30" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2732,8 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="242"/>
-      <c r="C12" s="247"/>
+      <c r="B12" s="261"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="107" t="s">
         <v>4</v>
       </c>
@@ -2762,8 +2757,8 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="242"/>
-      <c r="C13" s="236" t="s">
+      <c r="B13" s="261"/>
+      <c r="C13" s="271" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="126" t="s">
@@ -2788,8 +2783,8 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="242"/>
-      <c r="C14" s="237"/>
+      <c r="B14" s="261"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
@@ -2813,8 +2808,8 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="242"/>
-      <c r="C15" s="237"/>
+      <c r="B15" s="261"/>
+      <c r="C15" s="266"/>
       <c r="D15" s="30" t="s">
         <v>1</v>
       </c>
@@ -2839,8 +2834,8 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="242"/>
-      <c r="C16" s="237"/>
+      <c r="B16" s="261"/>
+      <c r="C16" s="266"/>
       <c r="D16" s="30" t="s">
         <v>2</v>
       </c>
@@ -2870,8 +2865,8 @@
       <c r="T16" s="136"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="242"/>
-      <c r="C17" s="237"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="30" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +2890,8 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="242"/>
-      <c r="C18" s="247"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="267"/>
       <c r="D18" s="107" t="s">
         <v>4</v>
       </c>
@@ -2919,8 +2914,8 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="242"/>
-      <c r="C19" s="236" t="s">
+      <c r="B19" s="261"/>
+      <c r="C19" s="271" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="126" t="s">
@@ -2946,8 +2941,8 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="242"/>
-      <c r="C20" s="237"/>
+      <c r="B20" s="261"/>
+      <c r="C20" s="266"/>
       <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
@@ -2971,8 +2966,8 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="242"/>
-      <c r="C21" s="237"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="266"/>
       <c r="D21" s="30" t="s">
         <v>1</v>
       </c>
@@ -2996,8 +2991,8 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="242"/>
-      <c r="C22" s="237"/>
+      <c r="B22" s="261"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="30" t="s">
         <v>2</v>
       </c>
@@ -3021,8 +3016,8 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="242"/>
-      <c r="C23" s="237"/>
+      <c r="B23" s="261"/>
+      <c r="C23" s="266"/>
       <c r="D23" s="30" t="s">
         <v>3</v>
       </c>
@@ -3045,8 +3040,8 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="243"/>
-      <c r="C24" s="238"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="281"/>
       <c r="D24" s="123" t="s">
         <v>4</v>
       </c>
@@ -3080,10 +3075,10 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="226" t="s">
+      <c r="B26" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="229" t="s">
+      <c r="C26" s="275" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="31" t="s">
@@ -3107,8 +3102,8 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="227"/>
-      <c r="C27" s="230"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="276"/>
       <c r="D27" s="30" t="s">
         <v>8</v>
       </c>
@@ -3130,8 +3125,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="227"/>
-      <c r="C28" s="230"/>
+      <c r="B28" s="273"/>
+      <c r="C28" s="276"/>
       <c r="D28" s="30" t="s">
         <v>1</v>
       </c>
@@ -3153,8 +3148,8 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="227"/>
-      <c r="C29" s="230"/>
+      <c r="B29" s="273"/>
+      <c r="C29" s="276"/>
       <c r="D29" s="30" t="s">
         <v>2</v>
       </c>
@@ -3176,8 +3171,8 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="227"/>
-      <c r="C30" s="230"/>
+      <c r="B30" s="273"/>
+      <c r="C30" s="276"/>
       <c r="D30" s="30" t="s">
         <v>3</v>
       </c>
@@ -3199,8 +3194,8 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="227"/>
-      <c r="C31" s="231"/>
+      <c r="B31" s="273"/>
+      <c r="C31" s="277"/>
       <c r="D31" s="107" t="s">
         <v>4</v>
       </c>
@@ -3223,8 +3218,8 @@
       <c r="L31" s="12"/>
     </row>
     <row r="32" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="227"/>
-      <c r="C32" s="232" t="s">
+      <c r="B32" s="273"/>
+      <c r="C32" s="278" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="126" t="s">
@@ -3249,8 +3244,8 @@
       <c r="L32" s="12"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="227"/>
-      <c r="C33" s="230"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="276"/>
       <c r="D33" s="30" t="s">
         <v>8</v>
       </c>
@@ -3272,8 +3267,8 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="227"/>
-      <c r="C34" s="230"/>
+      <c r="B34" s="273"/>
+      <c r="C34" s="276"/>
       <c r="D34" s="30" t="s">
         <v>1</v>
       </c>
@@ -3295,8 +3290,8 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="227"/>
-      <c r="C35" s="230"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="276"/>
       <c r="D35" s="30" t="s">
         <v>2</v>
       </c>
@@ -3318,8 +3313,8 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="227"/>
-      <c r="C36" s="230"/>
+      <c r="B36" s="273"/>
+      <c r="C36" s="276"/>
       <c r="D36" s="30" t="s">
         <v>3</v>
       </c>
@@ -3341,8 +3336,8 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="227"/>
-      <c r="C37" s="231"/>
+      <c r="B37" s="273"/>
+      <c r="C37" s="277"/>
       <c r="D37" s="107" t="s">
         <v>4</v>
       </c>
@@ -3364,8 +3359,8 @@
       </c>
     </row>
     <row r="38" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="227"/>
-      <c r="C38" s="230" t="s">
+      <c r="B38" s="273"/>
+      <c r="C38" s="276" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="122" t="s">
@@ -3389,8 +3384,8 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="227"/>
-      <c r="C39" s="230"/>
+      <c r="B39" s="273"/>
+      <c r="C39" s="276"/>
       <c r="D39" s="30" t="s">
         <v>8</v>
       </c>
@@ -3412,8 +3407,8 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="227"/>
-      <c r="C40" s="230"/>
+      <c r="B40" s="273"/>
+      <c r="C40" s="276"/>
       <c r="D40" s="30" t="s">
         <v>1</v>
       </c>
@@ -3435,8 +3430,8 @@
       </c>
     </row>
     <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="227"/>
-      <c r="C41" s="230"/>
+      <c r="B41" s="273"/>
+      <c r="C41" s="276"/>
       <c r="D41" s="30" t="s">
         <v>2</v>
       </c>
@@ -3458,8 +3453,8 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="227"/>
-      <c r="C42" s="230"/>
+      <c r="B42" s="273"/>
+      <c r="C42" s="276"/>
       <c r="D42" s="30" t="s">
         <v>3</v>
       </c>
@@ -3481,8 +3476,8 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="228"/>
-      <c r="C43" s="233"/>
+      <c r="B43" s="274"/>
+      <c r="C43" s="279"/>
       <c r="D43" s="123" t="s">
         <v>4</v>
       </c>
@@ -3515,10 +3510,10 @@
       <c r="J44" s="116"/>
     </row>
     <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="226" t="s">
+      <c r="B45" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="229" t="s">
+      <c r="C45" s="275" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="31" t="s">
@@ -3542,8 +3537,8 @@
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="227"/>
-      <c r="C46" s="230"/>
+      <c r="B46" s="273"/>
+      <c r="C46" s="276"/>
       <c r="D46" s="30" t="s">
         <v>8</v>
       </c>
@@ -3565,8 +3560,8 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="227"/>
-      <c r="C47" s="230"/>
+      <c r="B47" s="273"/>
+      <c r="C47" s="276"/>
       <c r="D47" s="30" t="s">
         <v>1</v>
       </c>
@@ -3588,8 +3583,8 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="227"/>
-      <c r="C48" s="230"/>
+      <c r="B48" s="273"/>
+      <c r="C48" s="276"/>
       <c r="D48" s="30" t="s">
         <v>2</v>
       </c>
@@ -3611,8 +3606,8 @@
       </c>
     </row>
     <row r="49" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="227"/>
-      <c r="C49" s="230"/>
+      <c r="B49" s="273"/>
+      <c r="C49" s="276"/>
       <c r="D49" s="30" t="s">
         <v>3</v>
       </c>
@@ -3634,8 +3629,8 @@
       </c>
     </row>
     <row r="50" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="227"/>
-      <c r="C50" s="231"/>
+      <c r="B50" s="273"/>
+      <c r="C50" s="277"/>
       <c r="D50" s="107" t="s">
         <v>4</v>
       </c>
@@ -3657,8 +3652,8 @@
       </c>
     </row>
     <row r="51" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="227"/>
-      <c r="C51" s="232" t="s">
+      <c r="B51" s="273"/>
+      <c r="C51" s="278" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="126" t="s">
@@ -3682,8 +3677,8 @@
       </c>
     </row>
     <row r="52" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="227"/>
-      <c r="C52" s="230"/>
+      <c r="B52" s="273"/>
+      <c r="C52" s="276"/>
       <c r="D52" s="30" t="s">
         <v>8</v>
       </c>
@@ -3706,8 +3701,8 @@
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="227"/>
-      <c r="C53" s="230"/>
+      <c r="B53" s="273"/>
+      <c r="C53" s="276"/>
       <c r="D53" s="30" t="s">
         <v>1</v>
       </c>
@@ -3729,8 +3724,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="227"/>
-      <c r="C54" s="230"/>
+      <c r="B54" s="273"/>
+      <c r="C54" s="276"/>
       <c r="D54" s="30" t="s">
         <v>2</v>
       </c>
@@ -3753,8 +3748,8 @@
       <c r="L54" s="12"/>
     </row>
     <row r="55" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="227"/>
-      <c r="C55" s="230"/>
+      <c r="B55" s="273"/>
+      <c r="C55" s="276"/>
       <c r="D55" s="30" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3771,8 @@
       </c>
     </row>
     <row r="56" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="227"/>
-      <c r="C56" s="231"/>
+      <c r="B56" s="273"/>
+      <c r="C56" s="277"/>
       <c r="D56" s="107" t="s">
         <v>4</v>
       </c>
@@ -3799,8 +3794,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="227"/>
-      <c r="C57" s="230" t="s">
+      <c r="B57" s="273"/>
+      <c r="C57" s="276" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="122" t="s">
@@ -3824,8 +3819,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="227"/>
-      <c r="C58" s="230"/>
+      <c r="B58" s="273"/>
+      <c r="C58" s="276"/>
       <c r="D58" s="30" t="s">
         <v>8</v>
       </c>
@@ -3847,8 +3842,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="227"/>
-      <c r="C59" s="230"/>
+      <c r="B59" s="273"/>
+      <c r="C59" s="276"/>
       <c r="D59" s="30" t="s">
         <v>1</v>
       </c>
@@ -3870,8 +3865,8 @@
       </c>
     </row>
     <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="227"/>
-      <c r="C60" s="230"/>
+      <c r="B60" s="273"/>
+      <c r="C60" s="276"/>
       <c r="D60" s="30" t="s">
         <v>2</v>
       </c>
@@ -3893,8 +3888,8 @@
       </c>
     </row>
     <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="227"/>
-      <c r="C61" s="230"/>
+      <c r="B61" s="273"/>
+      <c r="C61" s="276"/>
       <c r="D61" s="30" t="s">
         <v>3</v>
       </c>
@@ -3916,8 +3911,8 @@
       </c>
     </row>
     <row r="62" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="228"/>
-      <c r="C62" s="233"/>
+      <c r="B62" s="274"/>
+      <c r="C62" s="279"/>
       <c r="D62" s="123" t="s">
         <v>4</v>
       </c>
@@ -3943,12 +3938,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B7:B24"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C13:C18"/>
     <mergeCell ref="B45:B62"/>
     <mergeCell ref="C45:C50"/>
     <mergeCell ref="C51:C56"/>
@@ -3959,6 +3948,12 @@
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C13:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3969,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5764096-CBDC-48A7-984B-BFD813F170CD}">
   <dimension ref="B1:U27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,28 +4007,28 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="257" t="s">
+      <c r="F3" s="288" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="258"/>
+      <c r="G3" s="289"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="239" t="s">
+      <c r="I3" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="235"/>
-      <c r="K3" s="240"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
     </row>
     <row r="4" spans="2:21" s="38" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
       <c r="E4" s="221"/>
-      <c r="F4" s="261" t="s">
+      <c r="F4" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="262"/>
+      <c r="G4" s="291"/>
       <c r="H4" s="23"/>
       <c r="I4" s="19" t="s">
         <v>19</v>
@@ -4052,37 +4047,37 @@
       <c r="C5" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="286" t="s">
+      <c r="D5" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="287" t="s">
+      <c r="E5" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="267" t="s">
+      <c r="F5" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="288" t="s">
+      <c r="G5" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="289"/>
-      <c r="I5" s="290" t="s">
+      <c r="H5" s="245"/>
+      <c r="I5" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="291" t="s">
+      <c r="J5" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="291" t="s">
+      <c r="K5" s="247" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="285" t="s">
+      <c r="C6" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="280" t="s">
+      <c r="D6" s="237" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="211" t="s">
@@ -4106,12 +4101,12 @@
       </c>
     </row>
     <row r="7" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="252"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="278" t="s">
+      <c r="B7" s="283"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="276" t="s">
+      <c r="E7" s="233" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="108">
@@ -4130,20 +4125,20 @@
       <c r="K7" s="217">
         <v>-0.12</v>
       </c>
-      <c r="M7" s="270"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
     </row>
     <row r="8" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="252"/>
-      <c r="C8" s="256" t="s">
+      <c r="B8" s="283"/>
+      <c r="C8" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="279" t="s">
+      <c r="D8" s="236" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="211" t="s">
@@ -4165,21 +4160,21 @@
       <c r="K8" s="214">
         <v>-6.59E-2</v>
       </c>
-      <c r="M8" s="270"/>
-      <c r="N8" s="270"/>
-      <c r="O8" s="270"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
     </row>
     <row r="9" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="252"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="278" t="s">
+      <c r="B9" s="283"/>
+      <c r="C9" s="286"/>
+      <c r="D9" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="276" t="s">
+      <c r="E9" s="233" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="213">
@@ -4198,23 +4193,23 @@
       <c r="K9" s="141">
         <v>-0.111</v>
       </c>
-      <c r="M9" s="272"/>
-      <c r="N9" s="272"/>
-      <c r="O9" s="271"/>
-      <c r="P9" s="273"/>
-      <c r="Q9" s="273"/>
-      <c r="R9" s="273"/>
-      <c r="S9" s="272"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="230"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="41"/>
     </row>
     <row r="10" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="252"/>
+      <c r="B10" s="283"/>
       <c r="C10" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="280" t="s">
+      <c r="D10" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="265" t="s">
+      <c r="E10" s="226" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="145">
@@ -4234,13 +4229,13 @@
         <v>-6.6000000000000003E-2</v>
       </c>
       <c r="L10" s="106"/>
-      <c r="M10" s="270"/>
-      <c r="N10" s="270"/>
-      <c r="O10" s="270"/>
-      <c r="P10" s="270"/>
-      <c r="Q10" s="270"/>
-      <c r="R10" s="270"/>
-      <c r="S10" s="270"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
     </row>
@@ -4248,31 +4243,31 @@
       <c r="B11" s="75"/>
       <c r="C11" s="76"/>
       <c r="D11" s="77"/>
-      <c r="E11" s="266"/>
+      <c r="E11" s="151"/>
       <c r="F11" s="210"/>
       <c r="G11" s="79"/>
       <c r="H11" s="153"/>
       <c r="I11" s="80"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
-      <c r="M11" s="270"/>
-      <c r="N11" s="270"/>
-      <c r="O11" s="270"/>
-      <c r="P11" s="270"/>
-      <c r="Q11" s="270"/>
-      <c r="R11" s="270"/>
-      <c r="S11" s="270"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
     </row>
     <row r="12" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="251" t="s">
+      <c r="B12" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="254" t="s">
+      <c r="C12" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="277" t="s">
+      <c r="D12" s="234" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="211" t="s">
@@ -4295,21 +4290,21 @@
         <v>-0.17199999999999999</v>
       </c>
       <c r="L12"/>
-      <c r="M12" s="270"/>
-      <c r="N12" s="270"/>
-      <c r="O12" s="270"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
     </row>
     <row r="13" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="252"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="278" t="s">
+      <c r="B13" s="283"/>
+      <c r="C13" s="286"/>
+      <c r="D13" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="276" t="s">
+      <c r="E13" s="233" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="108">
@@ -4331,11 +4326,11 @@
       <c r="L13"/>
     </row>
     <row r="14" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="252"/>
-      <c r="C14" s="256" t="s">
+      <c r="B14" s="283"/>
+      <c r="C14" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="279" t="s">
+      <c r="D14" s="236" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="211" t="s">
@@ -4360,12 +4355,12 @@
       <c r="L14"/>
     </row>
     <row r="15" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="252"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="278" t="s">
+      <c r="B15" s="283"/>
+      <c r="C15" s="286"/>
+      <c r="D15" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="276" t="s">
+      <c r="E15" s="233" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="108">
@@ -4389,14 +4384,14 @@
       <c r="N15"/>
     </row>
     <row r="16" spans="2:21" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="252"/>
+      <c r="B16" s="283"/>
       <c r="C16" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="280" t="s">
+      <c r="D16" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="265" t="s">
+      <c r="E16" s="226" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="145">
@@ -4435,19 +4430,19 @@
       <c r="N17"/>
     </row>
     <row r="18" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="251" t="s">
+      <c r="B18" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="254" t="s">
+      <c r="C18" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="277" t="s">
+      <c r="D18" s="234" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="282">
+      <c r="F18" s="239">
         <v>0.29899999999999999</v>
       </c>
       <c r="G18" s="42">
@@ -4457,7 +4452,7 @@
       <c r="I18" s="54">
         <v>0.121</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="93">
         <v>-0.40100000000000002</v>
       </c>
       <c r="K18" s="187">
@@ -4468,9 +4463,9 @@
       <c r="N18"/>
     </row>
     <row r="19" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="252"/>
-      <c r="C19" s="255"/>
-      <c r="D19" s="278" t="s">
+      <c r="B19" s="283"/>
+      <c r="C19" s="286"/>
+      <c r="D19" s="235" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -4497,17 +4492,17 @@
       <c r="N19"/>
     </row>
     <row r="20" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="252"/>
-      <c r="C20" s="256" t="s">
+      <c r="B20" s="283"/>
+      <c r="C20" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="279" t="s">
+      <c r="D20" s="236" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="292">
+      <c r="F20" s="248">
         <v>0.34</v>
       </c>
       <c r="G20" s="138">
@@ -4527,9 +4522,9 @@
       <c r="M20"/>
     </row>
     <row r="21" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="252"/>
-      <c r="C21" s="255"/>
-      <c r="D21" s="278" t="s">
+      <c r="B21" s="283"/>
+      <c r="C21" s="286"/>
+      <c r="D21" s="235" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -4555,24 +4550,24 @@
       <c r="M21"/>
     </row>
     <row r="22" spans="2:14" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="253"/>
-      <c r="C22" s="284" t="s">
+      <c r="B22" s="284"/>
+      <c r="C22" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="281" t="s">
+      <c r="D22" s="238" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="274">
+      <c r="F22" s="231">
         <v>0.28999999999999998</v>
       </c>
       <c r="G22" s="212">
         <v>0.8</v>
       </c>
       <c r="H22" s="158"/>
-      <c r="I22" s="269">
+      <c r="I22" s="229">
         <v>0.115</v>
       </c>
       <c r="J22" s="63">
@@ -4599,38 +4594,38 @@
       <c r="M23"/>
     </row>
     <row r="24" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="270"/>
-      <c r="E24" s="270"/>
-      <c r="F24" s="270"/>
-      <c r="G24" s="270"/>
-      <c r="H24" s="270"/>
-      <c r="I24" s="270"/>
-      <c r="J24" s="270"/>
-      <c r="K24" s="270"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
     </row>
     <row r="25" spans="2:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="270"/>
-      <c r="E25" s="270"/>
-      <c r="F25" s="271"/>
-      <c r="G25" s="272"/>
-      <c r="H25" s="273">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="59">
         <v>0.115</v>
       </c>
-      <c r="I25" s="273"/>
-      <c r="J25" s="272"/>
-      <c r="K25" s="270"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="41"/>
+      <c r="K25"/>
     </row>
     <row r="26" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="270"/>
-      <c r="E26" s="270"/>
-      <c r="F26" s="270"/>
-      <c r="G26" s="270"/>
-      <c r="H26" s="270"/>
-      <c r="I26" s="270"/>
-      <c r="J26" s="270"/>
-      <c r="K26" s="270"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
     </row>
     <row r="27" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4658,8 +4653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63A179C-A39D-4F54-8121-5C3E8B4CB3C9}">
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,27 +4674,27 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="234" t="s">
+      <c r="E2" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="235"/>
+      <c r="F2" s="258"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="239" t="s">
+      <c r="H2" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="235"/>
-      <c r="J2" s="240"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="259"/>
     </row>
     <row r="3" spans="2:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="259" t="s">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="260"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="244" t="s">
+      <c r="C3" s="295"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="245"/>
+      <c r="F3" s="264"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19" t="s">
         <v>19</v>
@@ -4781,10 +4776,10 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="293" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -4809,8 +4804,8 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="227"/>
-      <c r="C8" s="230"/>
+      <c r="B8" s="273"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
@@ -4834,8 +4829,8 @@
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="227"/>
-      <c r="C9" s="230"/>
+      <c r="B9" s="273"/>
+      <c r="C9" s="276"/>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
@@ -4859,8 +4854,8 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="227"/>
-      <c r="C10" s="230"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="276"/>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
@@ -4883,8 +4878,8 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="227"/>
-      <c r="C11" s="230"/>
+      <c r="B11" s="273"/>
+      <c r="C11" s="276"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -4907,8 +4902,8 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="227"/>
-      <c r="C12" s="231"/>
+      <c r="B12" s="273"/>
+      <c r="C12" s="277"/>
       <c r="D12" s="11" t="s">
         <v>4</v>
       </c>
@@ -4931,8 +4926,8 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="227"/>
-      <c r="C13" s="232" t="s">
+      <c r="B13" s="273"/>
+      <c r="C13" s="278" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -4957,8 +4952,8 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="227"/>
-      <c r="C14" s="230"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="276"/>
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
@@ -4981,8 +4976,8 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="227"/>
-      <c r="C15" s="230"/>
+      <c r="B15" s="273"/>
+      <c r="C15" s="276"/>
       <c r="D15" s="10" t="s">
         <v>1</v>
       </c>
@@ -5005,8 +5000,8 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="227"/>
-      <c r="C16" s="230"/>
+      <c r="B16" s="273"/>
+      <c r="C16" s="276"/>
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
@@ -5029,8 +5024,8 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="227"/>
-      <c r="C17" s="230"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="276"/>
       <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
@@ -5053,8 +5048,8 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="227"/>
-      <c r="C18" s="231"/>
+      <c r="B18" s="273"/>
+      <c r="C18" s="277"/>
       <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
@@ -5077,8 +5072,8 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="227"/>
-      <c r="C19" s="232" t="s">
+      <c r="B19" s="273"/>
+      <c r="C19" s="278" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -5104,8 +5099,8 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="227"/>
-      <c r="C20" s="230"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="276"/>
       <c r="D20" s="9" t="s">
         <v>8</v>
       </c>
@@ -5129,8 +5124,8 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="227"/>
-      <c r="C21" s="230"/>
+      <c r="B21" s="273"/>
+      <c r="C21" s="276"/>
       <c r="D21" s="10" t="s">
         <v>1</v>
       </c>
@@ -5154,8 +5149,8 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="227"/>
-      <c r="C22" s="230"/>
+      <c r="B22" s="273"/>
+      <c r="C22" s="276"/>
       <c r="D22" s="9" t="s">
         <v>2</v>
       </c>
@@ -5179,8 +5174,8 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="227"/>
-      <c r="C23" s="230"/>
+      <c r="B23" s="273"/>
+      <c r="C23" s="276"/>
       <c r="D23" s="9" t="s">
         <v>3</v>
       </c>
@@ -5203,8 +5198,8 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="227"/>
-      <c r="C24" s="231"/>
+      <c r="B24" s="273"/>
+      <c r="C24" s="277"/>
       <c r="D24" s="11" t="s">
         <v>4</v>
       </c>
@@ -5238,10 +5233,10 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="226" t="s">
+      <c r="B26" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="229" t="s">
+      <c r="C26" s="275" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="103" t="s">
@@ -5265,8 +5260,8 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="227"/>
-      <c r="C27" s="230"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="276"/>
       <c r="D27" s="9" t="s">
         <v>8</v>
       </c>
@@ -5288,8 +5283,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="227"/>
-      <c r="C28" s="230"/>
+      <c r="B28" s="273"/>
+      <c r="C28" s="276"/>
       <c r="D28" s="10" t="s">
         <v>1</v>
       </c>
@@ -5311,8 +5306,8 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="227"/>
-      <c r="C29" s="230"/>
+      <c r="B29" s="273"/>
+      <c r="C29" s="276"/>
       <c r="D29" s="9" t="s">
         <v>2</v>
       </c>
@@ -5334,8 +5329,8 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="227"/>
-      <c r="C30" s="230"/>
+      <c r="B30" s="273"/>
+      <c r="C30" s="276"/>
       <c r="D30" s="9" t="s">
         <v>3</v>
       </c>
@@ -5357,8 +5352,8 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="227"/>
-      <c r="C31" s="231"/>
+      <c r="B31" s="273"/>
+      <c r="C31" s="277"/>
       <c r="D31" s="11" t="s">
         <v>4</v>
       </c>
@@ -5380,8 +5375,8 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="227"/>
-      <c r="C32" s="232" t="s">
+      <c r="B32" s="273"/>
+      <c r="C32" s="278" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -5405,8 +5400,8 @@
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="227"/>
-      <c r="C33" s="230"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="276"/>
       <c r="D33" s="9" t="s">
         <v>8</v>
       </c>
@@ -5428,8 +5423,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="227"/>
-      <c r="C34" s="230"/>
+      <c r="B34" s="273"/>
+      <c r="C34" s="276"/>
       <c r="D34" s="10" t="s">
         <v>1</v>
       </c>
@@ -5452,8 +5447,8 @@
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="227"/>
-      <c r="C35" s="230"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="276"/>
       <c r="D35" s="9" t="s">
         <v>2</v>
       </c>
@@ -5476,8 +5471,8 @@
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="227"/>
-      <c r="C36" s="230"/>
+      <c r="B36" s="273"/>
+      <c r="C36" s="276"/>
       <c r="D36" s="9" t="s">
         <v>3</v>
       </c>
@@ -5499,8 +5494,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="227"/>
-      <c r="C37" s="231"/>
+      <c r="B37" s="273"/>
+      <c r="C37" s="277"/>
       <c r="D37" s="11" t="s">
         <v>4</v>
       </c>
@@ -5522,8 +5517,8 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="227"/>
-      <c r="C38" s="232" t="s">
+      <c r="B38" s="273"/>
+      <c r="C38" s="278" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -5547,8 +5542,8 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="227"/>
-      <c r="C39" s="230"/>
+      <c r="B39" s="273"/>
+      <c r="C39" s="276"/>
       <c r="D39" s="9" t="s">
         <v>8</v>
       </c>
@@ -5570,8 +5565,8 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="227"/>
-      <c r="C40" s="230"/>
+      <c r="B40" s="273"/>
+      <c r="C40" s="276"/>
       <c r="D40" s="10" t="s">
         <v>1</v>
       </c>
@@ -5593,8 +5588,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="227"/>
-      <c r="C41" s="230"/>
+      <c r="B41" s="273"/>
+      <c r="C41" s="276"/>
       <c r="D41" s="9" t="s">
         <v>2</v>
       </c>
@@ -5616,8 +5611,8 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="227"/>
-      <c r="C42" s="230"/>
+      <c r="B42" s="273"/>
+      <c r="C42" s="276"/>
       <c r="D42" s="9" t="s">
         <v>3</v>
       </c>
@@ -5639,8 +5634,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="228"/>
-      <c r="C43" s="233"/>
+      <c r="B43" s="274"/>
+      <c r="C43" s="279"/>
       <c r="D43" s="33" t="s">
         <v>4</v>
       </c>
@@ -5673,10 +5668,10 @@
       <c r="J44" s="16"/>
     </row>
     <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="226" t="s">
+      <c r="B45" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="229" t="s">
+      <c r="C45" s="275" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="103" t="s">
@@ -5700,8 +5695,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="227"/>
-      <c r="C46" s="230"/>
+      <c r="B46" s="273"/>
+      <c r="C46" s="276"/>
       <c r="D46" s="9" t="s">
         <v>8</v>
       </c>
@@ -5723,8 +5718,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="227"/>
-      <c r="C47" s="230"/>
+      <c r="B47" s="273"/>
+      <c r="C47" s="276"/>
       <c r="D47" s="10" t="s">
         <v>1</v>
       </c>
@@ -5746,8 +5741,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="227"/>
-      <c r="C48" s="230"/>
+      <c r="B48" s="273"/>
+      <c r="C48" s="276"/>
       <c r="D48" s="9" t="s">
         <v>2</v>
       </c>
@@ -5769,8 +5764,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="227"/>
-      <c r="C49" s="230"/>
+      <c r="B49" s="273"/>
+      <c r="C49" s="276"/>
       <c r="D49" s="9" t="s">
         <v>3</v>
       </c>
@@ -5793,8 +5788,8 @@
       <c r="L49" s="12"/>
     </row>
     <row r="50" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="227"/>
-      <c r="C50" s="231"/>
+      <c r="B50" s="273"/>
+      <c r="C50" s="277"/>
       <c r="D50" s="11" t="s">
         <v>4</v>
       </c>
@@ -5817,8 +5812,8 @@
       <c r="L50" s="12"/>
     </row>
     <row r="51" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="227"/>
-      <c r="C51" s="232" t="s">
+      <c r="B51" s="273"/>
+      <c r="C51" s="278" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="10" t="s">
@@ -5842,8 +5837,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="227"/>
-      <c r="C52" s="230"/>
+      <c r="B52" s="273"/>
+      <c r="C52" s="276"/>
       <c r="D52" s="9" t="s">
         <v>8</v>
       </c>
@@ -5865,8 +5860,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="227"/>
-      <c r="C53" s="230"/>
+      <c r="B53" s="273"/>
+      <c r="C53" s="276"/>
       <c r="D53" s="10" t="s">
         <v>1</v>
       </c>
@@ -5888,15 +5883,15 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="227"/>
-      <c r="C54" s="230"/>
+      <c r="B54" s="273"/>
+      <c r="C54" s="276"/>
       <c r="D54" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="84">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F54" s="268">
+      <c r="F54" s="228">
         <v>0.82499999999999996</v>
       </c>
       <c r="G54" s="29"/>
@@ -5911,8 +5906,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="227"/>
-      <c r="C55" s="230"/>
+      <c r="B55" s="273"/>
+      <c r="C55" s="276"/>
       <c r="D55" s="9" t="s">
         <v>3</v>
       </c>
@@ -5934,8 +5929,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="227"/>
-      <c r="C56" s="231"/>
+      <c r="B56" s="273"/>
+      <c r="C56" s="277"/>
       <c r="D56" s="11" t="s">
         <v>4</v>
       </c>
@@ -5957,8 +5952,8 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="227"/>
-      <c r="C57" s="232" t="s">
+      <c r="B57" s="273"/>
+      <c r="C57" s="278" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="10" t="s">
@@ -5982,8 +5977,8 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="227"/>
-      <c r="C58" s="230"/>
+      <c r="B58" s="273"/>
+      <c r="C58" s="276"/>
       <c r="D58" s="9" t="s">
         <v>8</v>
       </c>
@@ -6005,8 +6000,8 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="227"/>
-      <c r="C59" s="230"/>
+      <c r="B59" s="273"/>
+      <c r="C59" s="276"/>
       <c r="D59" s="10" t="s">
         <v>1</v>
       </c>
@@ -6028,8 +6023,8 @@
       </c>
     </row>
     <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="227"/>
-      <c r="C60" s="230"/>
+      <c r="B60" s="273"/>
+      <c r="C60" s="276"/>
       <c r="D60" s="9" t="s">
         <v>2</v>
       </c>
@@ -6051,8 +6046,8 @@
       </c>
     </row>
     <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="227"/>
-      <c r="C61" s="230"/>
+      <c r="B61" s="273"/>
+      <c r="C61" s="276"/>
       <c r="D61" s="9" t="s">
         <v>3</v>
       </c>
@@ -6074,8 +6069,8 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="228"/>
-      <c r="C62" s="233"/>
+      <c r="B62" s="274"/>
+      <c r="C62" s="279"/>
       <c r="D62" s="33" t="s">
         <v>4</v>
       </c>
@@ -6086,7 +6081,7 @@
         <v>0.9</v>
       </c>
       <c r="G62" s="134"/>
-      <c r="H62" s="269">
+      <c r="H62" s="229">
         <v>8.4199999999999997E-2</v>
       </c>
       <c r="I62" s="63">
@@ -6101,6 +6096,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C13:C18"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C45:C50"/>
@@ -6109,14 +6112,6 @@
     <mergeCell ref="B45:B62"/>
     <mergeCell ref="C51:C56"/>
     <mergeCell ref="C57:C62"/>
-    <mergeCell ref="B7:B24"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C13:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6125,10 +6120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19302950-C106-4780-AFCB-B595BCCB0D58}">
-  <dimension ref="B1:S26"/>
+  <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6140,98 +6135,93 @@
     <col min="5" max="5" width="5.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="10" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="234" t="s">
+      <c r="F2" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="235"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="239" t="s">
+      <c r="G2" s="258"/>
+      <c r="H2" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="K2" s="240"/>
-    </row>
-    <row r="3" spans="2:19" s="38" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="259" t="s">
+      <c r="I2" s="258"/>
+      <c r="J2" s="259"/>
+    </row>
+    <row r="3" spans="2:18" s="38" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
       <c r="E3" s="222"/>
-      <c r="F3" s="244" t="s">
+      <c r="F3" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="245"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="191" t="s">
+      <c r="G3" s="264"/>
+      <c r="H3" s="191" t="s">
         <v>19</v>
       </c>
+      <c r="I3" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:19" s="38" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="38" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="298" t="s">
+      <c r="C4" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="294" t="s">
+      <c r="D4" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="293" t="s">
+      <c r="E4" s="249" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="290" t="s">
+      <c r="F4" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="295" t="s">
+      <c r="G4" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="296"/>
-      <c r="I4" s="297" t="s">
+      <c r="H4" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="291" t="s">
+      <c r="I4" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="291" t="s">
+      <c r="J4" s="247" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="251" t="s">
+    <row r="5" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="254" t="s">
+      <c r="C5" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="280" t="s">
+      <c r="D5" s="237" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="211" t="s">
@@ -6243,24 +6233,23 @@
       <c r="G5" s="181">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H5" s="129"/>
+      <c r="H5" s="99">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="I5" s="99">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="J5" s="99">
         <v>-0.39500000000000002</v>
       </c>
-      <c r="K5" s="112">
+      <c r="J5" s="112">
         <v>-5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="252"/>
-      <c r="C6" s="255"/>
-      <c r="D6" s="278" t="s">
+    <row r="6" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="283"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="276" t="s">
+      <c r="E6" s="233" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="108">
@@ -6269,23 +6258,22 @@
       <c r="G6" s="97">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="127">
+      <c r="H6" s="127">
         <v>0.19900000000000001</v>
       </c>
-      <c r="J6" s="183">
+      <c r="I6" s="183">
         <v>-6.9099999999999995E-2</v>
       </c>
-      <c r="K6" s="141">
+      <c r="J6" s="217">
         <v>-0.115</v>
       </c>
     </row>
-    <row r="7" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="252"/>
-      <c r="C7" s="256" t="s">
+    <row r="7" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="283"/>
+      <c r="C7" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="279" t="s">
+      <c r="D7" s="236" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="211" t="s">
@@ -6294,69 +6282,67 @@
       <c r="F7" s="137">
         <v>0.64700000000000002</v>
       </c>
-      <c r="G7" s="138">
+      <c r="G7" s="219">
         <v>1.35</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="182">
+      <c r="H7" s="182">
         <v>0.16800000000000001</v>
       </c>
-      <c r="J7" s="139">
+      <c r="I7" s="220">
         <v>-1.4</v>
       </c>
-      <c r="K7" s="184">
+      <c r="J7" s="184">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="M7" s="270"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-    </row>
-    <row r="8" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="252"/>
-      <c r="C8" s="255"/>
-      <c r="D8" s="278" t="s">
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="283"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="276" t="s">
+      <c r="E8" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="213">
         <v>0.65400000000000003</v>
       </c>
       <c r="G8" s="46">
         <v>1.25</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="127">
+      <c r="H8" s="225">
         <v>0.20399999999999999</v>
       </c>
-      <c r="J8" s="159">
+      <c r="I8" s="159">
         <v>-0.313</v>
       </c>
-      <c r="K8" s="141">
+      <c r="J8" s="141">
         <v>-0.108</v>
       </c>
-      <c r="M8" s="270"/>
-      <c r="N8" s="270"/>
-      <c r="O8" s="270"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
-    </row>
-    <row r="9" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="252"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="283"/>
       <c r="C9" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="280" t="s">
+      <c r="D9" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="265" t="s">
+      <c r="E9" s="226" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="145">
@@ -6365,51 +6351,49 @@
       <c r="G9" s="142">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H9" s="158"/>
+      <c r="H9" s="111">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="I9" s="111">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J9" s="111">
         <v>-0.69799999999999995</v>
       </c>
-      <c r="K9" s="143">
+      <c r="J9" s="143">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="M9" s="272"/>
-      <c r="N9" s="272"/>
-      <c r="O9" s="273"/>
-      <c r="P9" s="273"/>
-      <c r="Q9" s="273"/>
-      <c r="R9" s="270"/>
-      <c r="S9" s="270"/>
-    </row>
-    <row r="10" spans="2:19" s="38" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="2:18" s="38" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
       <c r="D10" s="77"/>
-      <c r="E10" s="266"/>
+      <c r="E10" s="151"/>
       <c r="F10" s="78"/>
       <c r="G10" s="79"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="M10" s="271"/>
-      <c r="N10" s="271"/>
-      <c r="O10" s="273"/>
-      <c r="P10" s="273"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="270"/>
-      <c r="S10" s="270"/>
-    </row>
-    <row r="11" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="251" t="s">
+      <c r="H10" s="192"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="L10" s="230"/>
+      <c r="M10" s="230"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="41"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="254" t="s">
+      <c r="C11" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="277" t="s">
+      <c r="D11" s="234" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="103" t="s">
@@ -6421,28 +6405,27 @@
       <c r="G11" s="44">
         <v>0.95</v>
       </c>
-      <c r="H11" s="129"/>
+      <c r="H11" s="54">
+        <v>0.13200000000000001</v>
+      </c>
       <c r="I11" s="54">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="J11" s="54">
         <v>-0.30599999999999999</v>
       </c>
-      <c r="K11" s="70">
+      <c r="J11" s="70">
         <v>-0.156</v>
       </c>
-      <c r="M11" s="271"/>
-      <c r="N11" s="271"/>
-      <c r="O11" s="273"/>
-      <c r="P11" s="273"/>
-      <c r="Q11" s="272"/>
-      <c r="R11" s="270"/>
-      <c r="S11" s="270"/>
-    </row>
-    <row r="12" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="252"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="278" t="s">
+      <c r="L11" s="230"/>
+      <c r="M11" s="230"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="41"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="283"/>
+      <c r="C12" s="286"/>
+      <c r="D12" s="235" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -6454,101 +6437,98 @@
       <c r="G12" s="97">
         <v>0.92500000000000004</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="127">
+      <c r="H12" s="127">
         <v>0.15</v>
       </c>
-      <c r="J12" s="159">
+      <c r="I12" s="159">
         <v>0.14199999999999999</v>
       </c>
-      <c r="K12" s="141">
+      <c r="J12" s="217">
         <v>-0.20599999999999999</v>
       </c>
+      <c r="K12"/>
       <c r="L12"/>
-      <c r="M12" s="270"/>
-      <c r="N12" s="270"/>
-      <c r="O12" s="270"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-    </row>
-    <row r="13" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="252"/>
-      <c r="C13" s="256" t="s">
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="283"/>
+      <c r="C13" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="279" t="s">
+      <c r="D13" s="236" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="283">
+      <c r="F13" s="240">
         <v>0.439</v>
       </c>
-      <c r="G13" s="138">
+      <c r="G13" s="219">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="88">
+      <c r="H13" s="88">
         <v>0.125</v>
       </c>
-      <c r="J13" s="54">
+      <c r="I13" s="93">
         <v>-0.373</v>
       </c>
-      <c r="K13" s="193">
+      <c r="J13" s="193">
         <v>-0.14299999999999999</v>
       </c>
+      <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" s="270"/>
-      <c r="N13" s="270"/>
-      <c r="O13" s="270"/>
-      <c r="P13" s="270"/>
-      <c r="Q13" s="270"/>
-      <c r="R13" s="270"/>
-      <c r="S13" s="270"/>
-    </row>
-    <row r="14" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="252"/>
-      <c r="C14" s="255"/>
-      <c r="D14" s="278" t="s">
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="283"/>
+      <c r="C14" s="286"/>
+      <c r="D14" s="235" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="297">
         <v>0.45</v>
       </c>
       <c r="G14" s="46">
         <v>1.08</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="127">
+      <c r="H14" s="225">
         <v>0.152</v>
       </c>
-      <c r="J14" s="183">
+      <c r="I14" s="183">
         <v>-0.13700000000000001</v>
       </c>
-      <c r="K14" s="141">
+      <c r="J14" s="141">
         <v>-0.19800000000000001</v>
       </c>
+      <c r="K14"/>
       <c r="L14"/>
-      <c r="M14" s="270"/>
-      <c r="N14" s="270"/>
-      <c r="O14" s="270"/>
-      <c r="P14" s="270"/>
-      <c r="Q14" s="270"/>
-      <c r="R14" s="270"/>
-      <c r="S14" s="270"/>
-    </row>
-    <row r="15" spans="2:19" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="253"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="2:18" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="284"/>
       <c r="C15" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="281" t="s">
+      <c r="D15" s="238" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="156" t="s">
@@ -6560,118 +6540,113 @@
       <c r="G15" s="49">
         <v>1.05</v>
       </c>
-      <c r="H15" s="158"/>
+      <c r="H15" s="54">
+        <v>0.13400000000000001</v>
+      </c>
       <c r="I15" s="54">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="J15" s="54">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="K15" s="57">
+      <c r="J15" s="57">
         <v>-0.158</v>
       </c>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="2:19" s="38" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="2:18" s="38" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="75"/>
       <c r="C16" s="76"/>
       <c r="D16" s="151"/>
       <c r="E16" s="151"/>
       <c r="F16" s="78"/>
       <c r="G16" s="79"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-    </row>
-    <row r="17" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="251" t="s">
+      <c r="H16" s="192"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="82"/>
+    </row>
+    <row r="17" spans="2:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="254" t="s">
+      <c r="C17" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="277" t="s">
+      <c r="D17" s="234" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="282">
+      <c r="F17" s="239">
         <v>0.29699999999999999</v>
       </c>
       <c r="G17" s="42">
         <v>0.875</v>
       </c>
-      <c r="H17" s="129"/>
+      <c r="H17" s="109">
+        <v>0.10299999999999999</v>
+      </c>
       <c r="I17" s="109">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J17" s="109">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="K17" s="112">
+      <c r="J17" s="112">
         <v>-0.17499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="252"/>
-      <c r="C18" s="255"/>
-      <c r="D18" s="278" t="s">
+    <row r="18" spans="2:10" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="283"/>
+      <c r="C18" s="286"/>
+      <c r="D18" s="235" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="301">
+      <c r="F18" s="255">
         <v>0.28499999999999998</v>
       </c>
       <c r="G18" s="97">
         <v>0.8</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="127">
+      <c r="H18" s="127">
         <v>0.11899999999999999</v>
       </c>
-      <c r="J18" s="159">
+      <c r="I18" s="159">
         <v>0.26600000000000001</v>
       </c>
-      <c r="K18" s="141">
+      <c r="J18" s="141">
         <v>-0.20100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="252"/>
-      <c r="C19" s="256" t="s">
+    <row r="19" spans="2:10" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="283"/>
+      <c r="C19" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="279" t="s">
+      <c r="D19" s="236" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="298">
         <v>0.33200000000000002</v>
       </c>
       <c r="G19" s="49">
         <v>0.875</v>
       </c>
-      <c r="H19" s="119"/>
+      <c r="H19" s="54">
+        <v>0.11</v>
+      </c>
       <c r="I19" s="54">
-        <v>0.11</v>
-      </c>
-      <c r="J19" s="54">
         <v>-0.13600000000000001</v>
       </c>
-      <c r="K19" s="57">
+      <c r="J19" s="57">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="252"/>
-      <c r="C20" s="255"/>
-      <c r="D20" s="278" t="s">
+    <row r="20" spans="2:10" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="283"/>
+      <c r="C20" s="286"/>
+      <c r="D20" s="235" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -6680,76 +6655,73 @@
       <c r="F20" s="108">
         <v>0.314</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="209">
         <v>0.92500000000000004</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="127">
+      <c r="H20" s="225">
         <v>0.126</v>
       </c>
-      <c r="J20" s="159">
+      <c r="I20" s="299">
         <v>0.33200000000000002</v>
       </c>
-      <c r="K20" s="141">
+      <c r="J20" s="217">
         <v>-0.20699999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="253"/>
+    <row r="21" spans="2:10" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="284"/>
       <c r="C21" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="281" t="s">
+      <c r="D21" s="238" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="275">
+      <c r="F21" s="232">
         <v>0.29599999999999999</v>
       </c>
-      <c r="G21" s="299">
+      <c r="G21" s="254">
         <v>0.82499999999999996</v>
       </c>
-      <c r="H21" s="158"/>
-      <c r="I21" s="300">
+      <c r="H21" s="63">
         <v>0.106</v>
       </c>
-      <c r="J21" s="300">
+      <c r="I21" s="63">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="K21" s="302">
+      <c r="J21" s="256">
         <v>-0.17399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="35"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="39"/>
-    </row>
-    <row r="25" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="39"/>
-    </row>
-    <row r="26" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="39"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C11:C12"/>
@@ -6766,15 +6738,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A69AE6C51AEE6142AD84D9FB7E253133" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="688ae3312de6a1cdf808e1735a79ca91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="756e89ea-a5fb-4d06-a9be-9b8635efcbbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ae5de413dc6742d84d7e8ba9b183640" ns3:_="">
     <xsd:import namespace="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
@@ -6950,6 +6913,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6957,14 +6929,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F55020E-069C-4126-815D-85E5FA260EED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6978,6 +6942,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
